--- a/data_excel/接口测试用例_ (8).xlsx
+++ b/data_excel/接口测试用例_ (8).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-01 09:42:58', 'context': '查无结果', 'ftime': '2019-09-01 09:42:58'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 07:21:38', 'ftime': '2019-09-29 07:21:38', 'context': '到达：【江苏常州分拨中心】正发往：【江苏常州天宁快运公司】', 'location': ''}, {'time': '2019-09-29 07:06:14', 'ftime': '2019-09-29 07:06:14', 'context': '到达：【江苏常州分拨中心】上级网点【上海分拨中心】', 'location': ''}, {'time': '2019-09-28 20:54:22', 'ftime': '2019-09-28 20:54:22', 'context': '到达：【上海分拨中心】正发往：【江苏常州分拨中心】', 'location': ''}, {'time': '2019-09-28 01:49:40', 'ftime': '2019-09-28 01:49:40', 'context': '到达：【上海分拨中心】上级网点【上海浦东分拨中心】', 'location': ''}, {'time': '2019-09-27 22:11:40', 'ftime': '2019-09-27 22:11:40', 'context': '到达：【上海浦东分拨中心】正发往：【上海分拨中心】', 'location': ''}, {'time': '2019-09-27 21:45:30', 'ftime': '2019-09-27 21:45:30', 'context': '到达：【上海浦东分拨中心】上级网点【上海浦东金桥工业区快运公司】', 'location': ''}, {'time': '2019-09-27 20:10:52', 'ftime': '2019-09-27 20:10:52', 'context': '到达：【上海浦东金桥工业区快运公司】正发往：【上海浦东分拨中心】', 'location': ''}, {'time': '2019-09-27 17:41:16', 'ftime': '2019-09-27 17:41:16', 'context': '已开单:【上海浦东金桥工业区快运公司】开单员是:杨小红', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.06678099999999999</v>
+        <v>0.075901</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.009724999999999999</v>
+        <v>0.010814</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-19 09:42:58', 'context': '查无结果', 'ftime': '2019-09-19 09:42:58'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-05 10:07:15', 'context': '查无结果', 'ftime': '2019-09-05 10:07:15'}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.06758400000000001</v>
+        <v>0.062251</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.010921</v>
+        <v>0.007596</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-01 19:09:05', 'ftime': '2018-11-01 19:09:05', 'context': '订单已由便利店代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-11-01 17:20:36', 'ftime': '2018-11-01 17:20:36', 'context': '配送员开始配送，请您准备收货，配送员，雷建康，手机号，17313620422', 'location': None}, {'time': '2018-11-01 16:57:44', 'ftime': '2018-11-01 16:57:44', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-11-01 13:09:18', 'ftime': '2018-11-01 13:09:18', 'context': '货物已完成分拣，离开【绵阳中转场】', 'location': None}, {'time': '2018-11-01 13:08:23', 'ftime': '2018-11-01 13:08:23', 'context': '货物已到达【绵阳中转场】', 'location': None}, {'time': '2018-11-01 08:28:01', 'ftime': '2018-11-01 08:28:01', 'context': '货物已完成分拣，离开【成都青白江分拣中心】', 'location': None}, {'time': '2018-10-30 20:24:25', 'ftime': '2018-10-30 20:24:25', 'context': '货物已完成分拣，离开【华东外单分拣中心】', 'location': None}, {'time': '2018-10-30 19:55:48', 'ftime': '2018-10-30 19:55:48', 'context': '货物已到达【华东外单分拣中心】', 'location': None}, {'time': '2018-10-30 19:50:50', 'ftime': '2018-10-30 19:50:50', 'context': '货物已到达【华东外单分拣中心】', 'location': None}, {'time': '2018-10-30 19:45:12', 'ftime': '2018-10-30 19:45:12', 'context': '货物已到达【华东外单分拣中心】', 'location': None}, {'time': '2018-10-30 18:34:59', 'ftime': '2018-10-30 18:34:59', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-10-30 18:34:59', 'ftime': '2018-10-30 18:34:59', 'context': '配送员安南南已经揽收完成', 'location': None}, {'time': '2018-10-30 17:22:56', 'ftime': '2018-10-30 17:22:56', 'context': '配送员裴超操作再取，再取原因为：客户更改揽收时间,新的预约时间为10月31日17:00-18:00', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-17 16:53:01', 'ftime': '2019-09-17 16:53:01', 'context': '[广东广州南沙保税区公司南沙黄阁分部]快件已被 叠翠峰一期8东架空层丰巢智能柜FC0209554 代签收如有问题请联系区冠达【18665573575】。', 'location': '广东广州南沙保税区公司南沙黄阁分部'}, {'time': '2019-09-17 14:09:08', 'ftime': '2019-09-17 14:09:08', 'context': '[广东广州南沙保税区公司南沙黄阁分部]进行派件扫描；派送业务员：区冠达；联系电话：18665573575', 'location': '广东广州南沙保税区公司南沙黄阁分部'}, {'time': '2019-09-17 09:35:06', 'ftime': '2019-09-17 09:35:06', 'context': '[广东佛山分拨中心]从站点发出，本次转运目的地：广东广州南沙保税区公司南沙黄阁分部', 'location': '广东佛山分拨中心'}, {'time': '2019-09-17 09:22:53', 'ftime': '2019-09-17 09:22:53', 'context': '[广东佛山分拨中心]在分拨中心进行卸车扫描', 'location': '广东佛山分拨中心'}, {'time': '2019-09-17 06:33:22', 'ftime': '2019-09-17 06:33:22', 'context': '[广东广州分拨中心]进行装车扫描，发往：广东佛山分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-09-17 06:31:02', 'ftime': '2019-09-17 06:31:02', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': '广东广州分拨中心'}, {'time': '2019-09-17 03:27:24', 'ftime': '2019-09-17 03:27:24', 'context': '[广东广州增城市新塘公司]进行下级地点扫描，发往：广东佛山分拨中心', 'location': '广东广州增城市新塘公司'}, {'time': '2019-09-17 02:59:29', 'ftime': '2019-09-17 02:59:29', 'context': '[广东广州增城市新塘公司]进行下级地点扫描，发往：广东佛山分拨中心', 'location': '广东广州增城市新塘公司'}, {'time': '2019-09-16 00:22:51', 'ftime': '2019-09-16 00:22:51', 'context': '[广东广州增城市新塘公司]进行揽件扫描', 'location': '广东广州增城市新塘公司'}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.07767300000000001</v>
+        <v>0.070729</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.012648</v>
+        <v>0.010553</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-27 17:32:47', 'ftime': '2019-09-27 17:32:47', 'context': '[宁夏石嘴山大武口区公司]快件已被 锦城电商便利店（快递柜代收） 代签收如有问题请联系黄青青【18095280508】。', 'location': '宁夏石嘴山大武口区公司'}, {'time': '2019-09-27 15:34:06', 'ftime': '2019-09-27 15:34:06', 'context': '[宁夏石嘴山大武口区公司]进行派件扫描；派送业务员：黄青青；联系电话：18095280508', 'location': '宁夏石嘴山大武口区公司'}, {'time': '2019-09-27 11:24:15', 'ftime': '2019-09-27 11:24:15', 'context': '[宁夏银川分拨中心]从站点发出，本次转运目的地：宁夏石嘴山大武口区公司', 'location': '宁夏银川分拨中心'}, {'time': '2019-09-26 12:48:58', 'ftime': '2019-09-26 12:48:58', 'context': '[陕西西安分拨中心]进行装车扫描，发往：宁夏银川分拨中心', 'location': '陕西西安分拨中心'}, {'time': '2019-09-26 12:46:04', 'ftime': '2019-09-26 12:46:04', 'context': '[陕西西安分拨中心]在分拨中心进行卸车扫描', 'location': '陕西西安分拨中心'}, {'time': '2019-09-24 22:23:26', 'ftime': '2019-09-24 22:23:26', 'context': '[广东东莞分拨中心]进行装车扫描，发往：陕西西安分拨中心', 'location': '广东东莞分拨中心'}, {'time': '2019-09-24 22:15:13', 'ftime': '2019-09-24 22:15:13', 'context': '[广东东莞分拨中心]在分拨中心进行称重扫描', 'location': '广东东莞分拨中心'}, {'time': '2019-09-24 16:59:51', 'ftime': '2019-09-24 16:59:51', 'context': '到达：【深圳口岸】包裹清关完成', 'location': ''}, {'time': '2019-09-24 11:16:06', 'ftime': '2019-09-24 11:16:06', 'context': '到达：【深圳口岸】包裹清关中', 'location': ''}, {'time': '2019-09-24 09:09:52', 'ftime': '2019-09-24 09:09:52', 'context': '到达：【中国-深圳】国际干线运输已到达【海关监管仓】', 'location': ''}, {'time': '2019-09-24 02:28:37', 'ftime': '2019-09-24 02:28:37', 'context': '到达：【香港-新界】，国际干线运输已从【新界海外仓】启程，航（班）次号：', 'location': ''}, {'time': '2019-09-23 23:55:29', 'ftime': '2019-09-23 23:55:29', 'context': '【香港-新界】包裹已从【新界海外仓】出库，等待干线运输', 'location': ''}, {'time': '2019-09-23 22:53:52', 'ftime': '2019-09-23 22:53:52', 'context': '【香港-新界】包裹已到达【新界海外仓】', 'location': ''}, {'time': '2019-09-23 21:18:59', 'ftime': '2019-09-23 21:18:59', 'context': '[香港韵达公司新界北区服务部]进行揽件扫描', 'location': '香港韵达公司新界北区服务部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 23:04:45', 'ftime': '2019-09-28 23:04:45', 'context': '[浙江杭州分拨中心]在分拨中心进行称重扫描', 'location': '浙江杭州分拨中心'}, {'time': '2019-09-28 18:52:17', 'ftime': '2019-09-28 18:52:17', 'context': '[浙江杭州余杭区崇贤公司]进行揽件扫描', 'location': '浙江杭州余杭区崇贤公司'}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.073475</v>
+        <v>0.072674</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.009816999999999999</v>
+        <v>0.00929</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-23 09:42:58', 'context': '查无结果', 'ftime': '2019-09-23 09:42:58'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 22:08:28', 'ftime': '2019-09-28 22:08:28', 'context': '浙江永康公司-已装袋发往-山东临沂公司', 'location': ''}, {'time': '2019-09-28 22:08:28', 'ftime': '2019-09-28 22:08:28', 'context': '浙江永康公司-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 21:49:52', 'ftime': '2019-09-28 21:49:52', 'context': '浙江永康公司-已发往-山东临沂中转部', 'location': ''}, {'time': '2019-09-28 21:49:52', 'ftime': '2019-09-28 21:49:52', 'context': '浙江永康公司-已进行装袋扫描', 'location': ''}, {'time': '2019-09-28 20:40:16', 'ftime': '2019-09-28 20:40:16', 'context': '浙江永康公司-未绑定(0579-89277777)-已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.069825</v>
+        <v>0.07362200000000001</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.011264</v>
+        <v>0.010138</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 13:56:11', 'ftime': '2019-09-28 13:56:11', 'context': '客户签收人: 本人 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：15761196419', 'location': ''}, {'time': '2019-09-28 09:12:32', 'ftime': '2019-09-28 09:12:32', 'context': '【浙江省湖州市环渚分部公司】 派件中 派件人: 兰成建 电话 15761196419 ', 'location': ''}, {'time': '2019-09-28 04:14:45', 'ftime': '2019-09-28 04:14:45', 'context': '【浙江省湖州市】 已发出 下一站 【浙江省湖州市环渚分部】', 'location': ''}, {'time': '2019-09-28 04:11:03', 'ftime': '2019-09-28 04:11:03', 'context': '【浙江省湖州市公司】 已收入', 'location': ''}, {'time': '2019-09-27 10:29:19', 'ftime': '2019-09-27 10:29:19', 'context': '【杭州转运中心】 已发出 下一站 【浙江省湖州市】', 'location': ''}, {'time': '2019-09-27 10:26:25', 'ftime': '2019-09-27 10:26:25', 'context': '【杭州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-25 22:50:08', 'ftime': '2019-09-25 22:50:08', 'context': '【成都转运中心】 已发出 下一站 【杭州转运中心】', 'location': ''}, {'time': '2019-09-25 22:47:41', 'ftime': '2019-09-25 22:47:41', 'context': '【成都转运中心公司】 已打包', 'location': ''}, {'time': '2019-09-25 22:20:38', 'ftime': '2019-09-25 22:20:38', 'context': '【成都转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-25 14:47:34', 'ftime': '2019-09-25 14:47:34', 'context': '【四川省德阳市公司】 已收件 取件人: 吴雪 (15775517983)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 15:32:11', 'ftime': '2019-09-28 15:32:11', 'context': '[湖北武汉分拨中心]从站点发出，本次转运目的地：湖北公安县公司', 'location': '湖北武汉分拨中心'}, {'time': '2019-09-28 15:21:17', 'ftime': '2019-09-28 15:21:17', 'context': '[湖北武汉分拨中心]在分拨中心进行卸车扫描', 'location': '湖北武汉分拨中心'}, {'time': '2019-09-27 18:41:28', 'ftime': '2019-09-27 18:41:28', 'context': '[福建福州分拨中心]进行装车扫描，发往：湖北武汉分拨中心', 'location': '福建福州分拨中心'}, {'time': '2019-09-27 17:52:51', 'ftime': '2019-09-27 17:52:51', 'context': '[福建福州分拨中心]在分拨中心进行称重扫描', 'location': '福建福州分拨中心'}, {'time': '2019-09-26 23:54:39', 'ftime': '2019-09-26 23:54:39', 'context': '[福建福州公司]进行下级地点扫描，发往：湖北武汉分拨中心', 'location': '福建福州公司'}, {'time': '2019-09-26 23:27:33', 'ftime': '2019-09-26 23:27:33', 'context': '[福建福州公司]进行揽件扫描', 'location': '福建福州公司'}, {'time': '2019-09-26 20:10:11', 'ftime': '2019-09-26 20:10:11', 'context': '[福建福州公司仓山迎飞花园便民服务站分部]进行揽件扫描', 'location': '福建福州公司仓山迎飞花园便民服务站分部'}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.069814</v>
+        <v>0.070912</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.009557</v>
+        <v>0.010414</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-23 15:06:04', 'ftime': '2019-09-23 15:06:04', 'context': '[北京东燕郊公司]快件已被 拍照 签收', 'location': '北京东燕郊公司'}, {'time': '2019-09-23 14:40:49', 'ftime': '2019-09-23 14:40:49', 'context': '[北京东燕郊公司]进行派件扫描；派送业务员：冯勃；联系电话：13241641017', 'location': '北京东燕郊公司'}, {'time': '2019-09-23 09:33:11', 'ftime': '2019-09-23 09:33:11', 'context': '[北京分拨中心]从站点发出，本次转运目的地：北京东燕郊公司三河市分部', 'location': '北京分拨中心'}, {'time': '2019-09-23 07:44:47', 'ftime': '2019-09-23 07:44:47', 'context': '[北京分拨中心]在分拨中心进行称重扫描', 'location': '北京分拨中心'}, {'time': '2019-09-22 01:04:03', 'ftime': '2019-09-22 01:04:03', 'context': '[广东广州分拨中心]进行装车扫描，发往：北京分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-09-21 23:01:48', 'ftime': '2019-09-21 23:01:48', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': '广东广州分拨中心'}, {'time': '2019-09-21 07:11:00', 'ftime': '2019-09-21 07:11:00', 'context': '[广东广州增城市新塘公司]进行下级地点扫描，发往：北京分拨中心', 'location': '广东广州增城市新塘公司'}, {'time': '2019-09-21 03:22:06', 'ftime': '2019-09-21 03:22:06', 'context': '[广东广州增城市新塘公司]进行揽件扫描', 'location': '广东广州增城市新塘公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 20:56:44', 'ftime': '2019-09-28 20:56:44', 'context': '您的订单已经到达武汉大件平台分拣中心,等待送往郑州大件分拣中心', 'location': ''}, {'time': '2019-09-28 20:55:28', 'ftime': '2019-09-28 20:55:28', 'context': '运单中全部包裹到达大件武汉大件平台分拣中心', 'location': ''}, {'time': '2019-09-27 20:59:57', 'ftime': '2019-09-27 20:59:57', 'context': '您的订单已经到达潮州大件产地分拣中心,等待送往武汉大件平台分拣中心', 'location': ''}, {'time': '2019-09-27 20:59:32', 'ftime': '2019-09-27 20:59:32', 'context': '运单中全部包裹到达大件潮州大件产地分拣中心', 'location': ''}, {'time': '2019-09-27 12:12:23', 'ftime': '2019-09-27 12:12:23', 'context': '运单已下传', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.077348</v>
+        <v>0.080516</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.015864</v>
+        <v>0.06106</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 19:10:54', 'ftime': '2019-09-28 19:10:54', 'context': '【2019-09-28 19:10:54】快件已被客户【仓库签收,签收网点【龙泉宝湾】', 'location': '成都市'}, {'time': '2019-09-28 18:24:35', 'ftime': '2019-09-28 18:24:35', 'context': '【2019-09-28 18:24:35】快件已到达【龙泉宝湾】', 'location': '成都市'}, {'time': '2019-09-28 09:21:22', 'ftime': '2019-09-28 09:21:22', 'context': '【2019-09-28 09:21:22】快件已到达【成都龙泉】', 'location': '成都市'}, {'time': '2019-09-28 03:24:16', 'ftime': '2019-09-28 03:24:16', 'context': '【2019-09-28 03:24:16】快件在【成都分拨中心】正发往【成都龙泉】', 'location': '成都市'}, {'time': '2019-09-27 13:46:14', 'ftime': '2019-09-27 13:46:14', 'context': '【2019-09-27 13:46:14】快件已到达【成都分拨中心】', 'location': '成都市'}, {'time': '2019-09-26 08:38:30', 'ftime': '2019-09-26 08:38:30', 'context': '【2019-09-26 08:38:30】快件在【常州分拨中心】正发往【成都分拨中心】', 'location': '常州市'}, {'time': '2019-09-25 23:05:11', 'ftime': '2019-09-25 23:05:11', 'context': '【2019-09-25 23:05:11】快件已到达【常州分拨中心】', 'location': '常州市'}, {'time': '2019-09-25 19:42:30', 'ftime': '2019-09-25 19:42:30', 'context': '【2019-09-25 19:42:30】快件在【镇江新区大岗】正发往【常州分拨中心】', 'location': '镇江市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-02 10:07:16', 'context': '查无结果', 'ftime': '2019-09-02 10:07:16'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.085066</v>
+        <v>0.06780799999999999</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.026464</v>
+        <v>0.008791</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-10-31 10:07:24', 'ftime': '2018-10-31 10:07:24', 'context': '[重庆市]重庆市【巴南一部】，一品菜鸟驿站代收 已签收', 'location': None}, {'time': '2018-10-31 09:11:14', 'ftime': '2018-10-31 09:11:14', 'context': '[重庆市]重庆市【巴南一部】，【张云风/13883596689】正在派件', 'location': None}, {'time': '2018-10-31 09:10:14', 'ftime': '2018-10-31 09:10:14', 'context': '[重庆市]到重庆市【巴南一部】', 'location': None}, {'time': '2018-10-31 02:05:49', 'ftime': '2018-10-31 02:05:49', 'context': '[重庆市]重庆市【重庆转运中心】，正发往【巴南一部】', 'location': None}, {'time': '2018-10-31 02:05:27', 'ftime': '2018-10-31 02:05:27', 'context': '[重庆市]重庆市【重庆转运中心】，正发往【巴南一部】', 'location': None}, {'time': '2018-10-30 23:18:37', 'ftime': '2018-10-30 23:18:37', 'context': '[重庆市]到重庆市【重庆转运中心】', 'location': None}, {'time': '2018-10-27 23:57:38', 'ftime': '2018-10-27 23:57:38', 'context': '[金华市]金华市【义乌转运中心】，正发往【重庆转运中心】', 'location': None}, {'time': '2018-10-27 22:23:50', 'ftime': '2018-10-27 22:23:50', 'context': '[金华市]到金华市【义乌转运中心】', 'location': None}, {'time': '2018-10-27 21:12:10', 'ftime': '2018-10-27 21:12:10', 'context': '[金华市]到金华市【义乌篁园市场分部集货点】', 'location': None}, {'time': '2018-10-27 20:00:35', 'ftime': '2018-10-27 20:00:35', 'context': '[金华市]金华市【义乌篁园市场分部-优质客户】，【郭涛/18072346004】已揽收', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 20:08:00', 'ftime': '2019-09-28 20:08:00', 'context': '【金华市】 已离开 浙江金华永康直跑分拨点 发往 湖北武汉分拨中心', 'location': ''}, {'time': '2019-09-28 19:20:00', 'ftime': '2019-09-28 19:20:00', 'context': '【金华市】 浙江武义县公司-杨谦(15957970532) 已揽收', 'location': ''}, {'time': '2019-09-28 10:28:00', 'ftime': '2019-09-28 10:28:00', 'context': '到达浙江金华国际转运中心，转韵达速递4301148927664', 'location': ''}, {'time': '2019-09-27 19:17:00', 'ftime': '2019-09-27 19:17:00', 'context': '清关完成，下一站浙江国际转运中心', 'location': ''}, {'time': '2019-09-26 15:39:00', 'ftime': '2019-09-26 15:39:00', 'context': '抵达上海浦东机场，委托办理清关手续', 'location': ''}, {'time': '2019-09-25 14:25:00', 'ftime': '2019-09-25 14:25:00', 'context': 'Bangkok Suvarnabhumi International Airport机场海关已放行', 'location': ''}, {'time': '2019-09-24 10:51:00', 'ftime': '2019-09-24 10:51:00', 'context': 'Bangkok 曼谷仓库扫描拍照，发往Bangkok Suvarnabhumi International Airport物流中心 ', 'location': ''}, {'time': '2019-09-23 21:38:00', 'ftime': '2019-09-23 21:38:00', 'context': 'Bangkok Khwaeng Huai Khwang 已揽件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.077158</v>
+        <v>0.068923</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.010394</v>
+        <v>0.009488</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (8).xlsx
+++ b/data_excel/接口测试用例_ (8).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 07:21:38', 'ftime': '2019-09-29 07:21:38', 'context': '到达：【江苏常州分拨中心】正发往：【江苏常州天宁快运公司】', 'location': ''}, {'time': '2019-09-29 07:06:14', 'ftime': '2019-09-29 07:06:14', 'context': '到达：【江苏常州分拨中心】上级网点【上海分拨中心】', 'location': ''}, {'time': '2019-09-28 20:54:22', 'ftime': '2019-09-28 20:54:22', 'context': '到达：【上海分拨中心】正发往：【江苏常州分拨中心】', 'location': ''}, {'time': '2019-09-28 01:49:40', 'ftime': '2019-09-28 01:49:40', 'context': '到达：【上海分拨中心】上级网点【上海浦东分拨中心】', 'location': ''}, {'time': '2019-09-27 22:11:40', 'ftime': '2019-09-27 22:11:40', 'context': '到达：【上海浦东分拨中心】正发往：【上海分拨中心】', 'location': ''}, {'time': '2019-09-27 21:45:30', 'ftime': '2019-09-27 21:45:30', 'context': '到达：【上海浦东分拨中心】上级网点【上海浦东金桥工业区快运公司】', 'location': ''}, {'time': '2019-09-27 20:10:52', 'ftime': '2019-09-27 20:10:52', 'context': '到达：【上海浦东金桥工业区快运公司】正发往：【上海浦东分拨中心】', 'location': ''}, {'time': '2019-09-27 17:41:16', 'ftime': '2019-09-27 17:41:16', 'context': '已开单:【上海浦东金桥工业区快运公司】开单员是:杨小红', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-09-14 17:14:57', 'ftime': '2018-09-14 17:14:57', 'context': ' 取件单已经终止', 'location': None}, {'time': '2018-09-14 16:52:23', 'ftime': '2018-09-14 16:52:23', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-14 21:00:00', 'location': None}, {'time': '2018-09-14 14:25:48', 'ftime': '2018-09-14 14:25:48', 'context': ' 配送员：田群利已出发，手机号：15633269852，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-14 14:01:29', 'ftime': '2018-09-14 14:01:29', 'context': ' 取件任务分配给保定安新站', 'location': None}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.075901</v>
+        <v>0.072717</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -671,11 +671,11 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.010814</v>
+        <v>0.009424999999999999</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-05 10:07:15', 'context': '查无结果', 'ftime': '2019-09-05 10:07:15'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 16:30:16', 'ftime': '2019-09-28 16:30:16', 'context': '浙江义乌公司-已发往-河北石家庄转运中心', 'location': ''}, {'time': '2019-09-28 16:30:16', 'ftime': '2019-09-28 16:30:16', 'context': '浙江义乌公司-已进行装袋扫描', 'location': ''}, {'time': '2019-09-28 16:25:46', 'ftime': '2019-09-28 16:25:46', 'context': '浙江义乌公司-丰巢2(0579-85456666)-已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.062251</v>
+        <v>0.069164</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -777,11 +777,11 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.007596</v>
+        <v>0.008132</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-17 16:53:01', 'ftime': '2019-09-17 16:53:01', 'context': '[广东广州南沙保税区公司南沙黄阁分部]快件已被 叠翠峰一期8东架空层丰巢智能柜FC0209554 代签收如有问题请联系区冠达【18665573575】。', 'location': '广东广州南沙保税区公司南沙黄阁分部'}, {'time': '2019-09-17 14:09:08', 'ftime': '2019-09-17 14:09:08', 'context': '[广东广州南沙保税区公司南沙黄阁分部]进行派件扫描；派送业务员：区冠达；联系电话：18665573575', 'location': '广东广州南沙保税区公司南沙黄阁分部'}, {'time': '2019-09-17 09:35:06', 'ftime': '2019-09-17 09:35:06', 'context': '[广东佛山分拨中心]从站点发出，本次转运目的地：广东广州南沙保税区公司南沙黄阁分部', 'location': '广东佛山分拨中心'}, {'time': '2019-09-17 09:22:53', 'ftime': '2019-09-17 09:22:53', 'context': '[广东佛山分拨中心]在分拨中心进行卸车扫描', 'location': '广东佛山分拨中心'}, {'time': '2019-09-17 06:33:22', 'ftime': '2019-09-17 06:33:22', 'context': '[广东广州分拨中心]进行装车扫描，发往：广东佛山分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-09-17 06:31:02', 'ftime': '2019-09-17 06:31:02', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': '广东广州分拨中心'}, {'time': '2019-09-17 03:27:24', 'ftime': '2019-09-17 03:27:24', 'context': '[广东广州增城市新塘公司]进行下级地点扫描，发往：广东佛山分拨中心', 'location': '广东广州增城市新塘公司'}, {'time': '2019-09-17 02:59:29', 'ftime': '2019-09-17 02:59:29', 'context': '[广东广州增城市新塘公司]进行下级地点扫描，发往：广东佛山分拨中心', 'location': '广东广州增城市新塘公司'}, {'time': '2019-09-16 00:22:51', 'ftime': '2019-09-16 00:22:51', 'context': '[广东广州增城市新塘公司]进行揽件扫描', 'location': '广东广州增城市新塘公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 22:08:19', 'ftime': '2019-09-28 22:08:19', 'context': '【菏泽转运中心】 已发出 下一站 【嘉兴转运中心】', 'location': ''}, {'time': '2019-09-28 22:03:52', 'ftime': '2019-09-28 22:03:52', 'context': '【菏泽转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 17:42:53', 'ftime': '2019-09-28 17:42:53', 'context': '【山东省枣庄市滕州市】 已发出 下一站 【菏泽转运中心】', 'location': ''}, {'time': '2019-09-28 13:38:30', 'ftime': '2019-09-28 13:38:30', 'context': '【山东省枣庄市滕州市公司】 已打包', 'location': ''}, {'time': '2019-09-28 12:44:05', 'ftime': '2019-09-28 12:44:05', 'context': '【山东省枣庄市滕州市公司】 已收件 取件人: 田磊 (13276370535)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.070729</v>
+        <v>0.07850600000000001</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.010553</v>
+        <v>0.009683000000000001</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 23:04:45', 'ftime': '2019-09-28 23:04:45', 'context': '[浙江杭州分拨中心]在分拨中心进行称重扫描', 'location': '浙江杭州分拨中心'}, {'time': '2019-09-28 18:52:17', 'ftime': '2019-09-28 18:52:17', 'context': '[浙江杭州余杭区崇贤公司]进行揽件扫描', 'location': '浙江杭州余杭区崇贤公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 18:29:30', 'ftime': '2019-09-28 18:29:30', 'context': '[淮安市]淮安市【淮安转运中心】，正发往【扬州转运中心】', 'location': None}, {'time': '2019-09-28 18:26:21', 'ftime': '2019-09-28 18:26:21', 'context': '[淮安市]到淮安市【淮安转运中心】', 'location': None}, {'time': '2019-09-28 00:51:11', 'ftime': '2019-09-28 00:51:11', 'context': '[武汉市]武汉市【武汉转运中心】，正发往【淮安转运中心】', 'location': None}, {'time': '2019-09-28 00:45:48', 'ftime': '2019-09-28 00:45:48', 'context': '[武汉市]到武汉市【武汉转运中心】', 'location': None}, {'time': '2019-09-27 17:24:37', 'ftime': '2019-09-27 17:24:37', 'context': '[武汉市]武汉市【武汉三阳路分部】，【卡嘉易/15377683290】已揽收', 'location': None}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.072674</v>
+        <v>0.07037599999999999</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -989,11 +989,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.00929</v>
+        <v>0.009894</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 22:08:28', 'ftime': '2019-09-28 22:08:28', 'context': '浙江永康公司-已装袋发往-山东临沂公司', 'location': ''}, {'time': '2019-09-28 22:08:28', 'ftime': '2019-09-28 22:08:28', 'context': '浙江永康公司-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 21:49:52', 'ftime': '2019-09-28 21:49:52', 'context': '浙江永康公司-已发往-山东临沂中转部', 'location': ''}, {'time': '2019-09-28 21:49:52', 'ftime': '2019-09-28 21:49:52', 'context': '浙江永康公司-已进行装袋扫描', 'location': ''}, {'time': '2019-09-28 20:40:16', 'ftime': '2019-09-28 20:40:16', 'context': '浙江永康公司-未绑定(0579-89277777)-已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 07:49:23', 'ftime': '2019-09-29 07:49:23', 'context': '[柳州市]【柳州市南站营业部】安排投递,投递员:蒋敏,电话:18877221253', 'location': '柳州市'}, {'time': '2019-09-29 06:27:17', 'ftime': '2019-09-29 06:27:17', 'context': '[柳州市]离开【柳州市邮件处理中心】,下一站【柳州市南站营业部】', 'location': '柳州市'}, {'time': '2019-09-28 23:49:20', 'ftime': '2019-09-28 23:49:20', 'context': '[柳州市]到达【柳州市邮件处理中心】', 'location': '柳州市'}, {'time': '2019-09-28 19:56:14', 'ftime': '2019-09-28 19:56:14', 'context': '[桂林市]离开【桂林市邮件处理中心】,下一站【柳州市邮件处理中心】', 'location': '桂林市'}, {'time': '2019-09-28 19:19:15', 'ftime': '2019-09-28 19:19:15', 'context': '[桂林市]到达【桂林市邮件处理中心】', 'location': '桂林市'}, {'time': '2019-09-28 17:09:33', 'ftime': '2019-09-28 17:09:33', 'context': '[桂林市]离开【灌阳县处理中心（营业部）】,下一站【中国邮政集团公司桂林市分公司邮件处理中心】', 'location': '桂林市'}, {'time': '2019-09-28 10:42:08', 'ftime': '2019-09-28 10:42:08', 'context': '[桂林市]【灌阳县处理中心（营业部）】已收件,揽投员:卿柱军,电话:19997908602', 'location': '桂林市'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.07362200000000001</v>
+        <v>0.071409</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.010138</v>
+        <v>0.010085</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 15:32:11', 'ftime': '2019-09-28 15:32:11', 'context': '[湖北武汉分拨中心]从站点发出，本次转运目的地：湖北公安县公司', 'location': '湖北武汉分拨中心'}, {'time': '2019-09-28 15:21:17', 'ftime': '2019-09-28 15:21:17', 'context': '[湖北武汉分拨中心]在分拨中心进行卸车扫描', 'location': '湖北武汉分拨中心'}, {'time': '2019-09-27 18:41:28', 'ftime': '2019-09-27 18:41:28', 'context': '[福建福州分拨中心]进行装车扫描，发往：湖北武汉分拨中心', 'location': '福建福州分拨中心'}, {'time': '2019-09-27 17:52:51', 'ftime': '2019-09-27 17:52:51', 'context': '[福建福州分拨中心]在分拨中心进行称重扫描', 'location': '福建福州分拨中心'}, {'time': '2019-09-26 23:54:39', 'ftime': '2019-09-26 23:54:39', 'context': '[福建福州公司]进行下级地点扫描，发往：湖北武汉分拨中心', 'location': '福建福州公司'}, {'time': '2019-09-26 23:27:33', 'ftime': '2019-09-26 23:27:33', 'context': '[福建福州公司]进行揽件扫描', 'location': '福建福州公司'}, {'time': '2019-09-26 20:10:11', 'ftime': '2019-09-26 20:10:11', 'context': '[福建福州公司仓山迎飞花园便民服务站分部]进行揽件扫描', 'location': '福建福州公司仓山迎飞花园便民服务站分部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 01:00:41', 'ftime': '2019-09-29 01:00:41', 'context': '【泉州转运中心】 已发出 下一站 【成都转运中心】', 'location': ''}, {'time': '2019-09-29 00:55:55', 'ftime': '2019-09-29 00:55:55', 'context': '【泉州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 22:40:58', 'ftime': '2019-09-28 22:40:58', 'context': '【福建省泉州市晋江市磁灶镇】 已发出 下一站 【泉州转运中心】', 'location': ''}, {'time': '2019-09-28 20:28:05', 'ftime': '2019-09-28 20:28:05', 'context': '【福建省泉州市晋江市磁灶镇公司】 已收件 取件人: 庄玉兰 (15960580226)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.070912</v>
+        <v>0.07413699999999999</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.010414</v>
+        <v>0.010409</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 20:56:44', 'ftime': '2019-09-28 20:56:44', 'context': '您的订单已经到达武汉大件平台分拣中心,等待送往郑州大件分拣中心', 'location': ''}, {'time': '2019-09-28 20:55:28', 'ftime': '2019-09-28 20:55:28', 'context': '运单中全部包裹到达大件武汉大件平台分拣中心', 'location': ''}, {'time': '2019-09-27 20:59:57', 'ftime': '2019-09-27 20:59:57', 'context': '您的订单已经到达潮州大件产地分拣中心,等待送往武汉大件平台分拣中心', 'location': ''}, {'time': '2019-09-27 20:59:32', 'ftime': '2019-09-27 20:59:32', 'context': '运单中全部包裹到达大件潮州大件产地分拣中心', 'location': ''}, {'time': '2019-09-27 12:12:23', 'ftime': '2019-09-27 12:12:23', 'context': '运单已下传', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 16:57:32', 'ftime': '2019-09-28 16:57:32', 'context': '【长春转运中心】 已发出 下一站 【内蒙古兴安盟乌兰浩特市】', 'location': ''}, {'time': '2019-09-28 16:51:06', 'ftime': '2019-09-28 16:51:06', 'context': '【长春转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 03:33:44', 'ftime': '2019-09-27 03:33:44', 'context': '【杭州转运中心】 已发出 下一站 【长春转运中心】', 'location': ''}, {'time': '2019-09-27 03:27:06', 'ftime': '2019-09-27 03:27:06', 'context': '【杭州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 23:05:22', 'ftime': '2019-09-26 23:05:22', 'context': '【临海转运中心】 已发出 下一站 【杭州转运中心】', 'location': ''}, {'time': '2019-09-26 23:01:57', 'ftime': '2019-09-26 23:01:57', 'context': '【临海转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 20:42:36', 'ftime': '2019-09-26 20:42:36', 'context': '【浙江省台州市路桥区】 已发出 下一站 【临海转运中心】', 'location': ''}, {'time': '2019-09-26 20:12:24', 'ftime': '2019-09-26 20:12:24', 'context': '【浙江省台州市路桥区公司】 已打包', 'location': ''}, {'time': '2019-09-26 17:07:21', 'ftime': '2019-09-26 17:07:21', 'context': '【浙江省台州市路桥区公司】 已收件 取件人: 尤梦 (18521109602)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.080516</v>
+        <v>0.069122</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.06106</v>
+        <v>0.009613</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-02 10:07:16', 'context': '查无结果', 'ftime': '2019-09-02 10:07:16'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-09-22 22:32:19', 'ftime': '2018-09-22 22:32:19', 'context': ' 取件单已经终止', 'location': None}, {'time': '2018-09-22 20:50:30', 'ftime': '2018-09-22 20:50:30', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-23 21:00:00', 'location': None}, {'time': '2018-09-22 17:26:32', 'ftime': '2018-09-22 17:26:32', 'context': ' 配送员：叶振明已出发，手机号：15695650038或0551-63710388，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-22 15:44:23', 'ftime': '2018-09-22 15:44:23', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-22 21:00:00', 'location': None}, {'time': '2018-09-22 12:50:30', 'ftime': '2018-09-22 12:50:30', 'context': ' 配送员：叶振明已出发，手机号：15695650038或0551-63710388，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-22 12:18:50', 'ftime': '2018-09-22 12:18:50', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-22 21:00:00', 'location': None}, {'time': '2018-09-22 08:08:12', 'ftime': '2018-09-22 08:08:12', 'context': ' 配送员：叶振明已出发，手机号：15695650038或0551-63710388，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-21 19:45:01', 'ftime': '2018-09-21 19:45:01', 'context': ' 上门取件失败，准备再次取件，原因：客户更改配送时间，备注：再投无备注下次再投时间:2018-09-22 21:00:00', 'location': None}, {'time': '2018-09-21 17:59:56', 'ftime': '2018-09-21 17:59:56', 'context': ' 配送员：叶振明已出发，手机号：15695650038或0551-63710388，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-21 15:10:49', 'ftime': '2018-09-21 15:10:49', 'context': ' 上门取件失败，准备再次取件，原因：客户更改配送时间，备注：再投无备注下次再投时间:2018-09-21 21:00:00', 'location': None}, {'time': '2018-09-21 13:09:09', 'ftime': '2018-09-21 13:09:09', 'context': ' 配送员：叶振明已出发，手机号：15695650038或0551-63710388，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-21 12:18:15', 'ftime': '2018-09-21 12:18:15', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-21 19:00:00', 'location': None}, {'time': '2018-09-21 09:52:02', 'ftime': '2018-09-21 09:52:02', 'context': ' 配送员：叶振明已出发，手机号：15695650038或0551-63710388，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-20 15:54:19', 'ftime': '2018-09-20 15:54:19', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-21 21:00:00', 'location': None}, {'time': '2018-09-20 13:33:56', 'ftime': '2018-09-20 13:33:56', 'context': ' 配送员：叶振明已出发，手机号：15695650038或0551-63710388，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-20 12:21:28', 'ftime': '2018-09-20 12:21:28', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-20 21:00:00', 'location': None}, {'time': '2018-09-20 09:38:00', 'ftime': '2018-09-20 09:38:00', 'context': ' 配送员：叶振明已出发，手机号：15695650038或0551-63710388，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-19 20:12:07', 'ftime': '2018-09-19 20:12:07', 'context': ' 上门取件失败，准备再次取件，原因：客户更改配送时间，备注：再投无备注下次再投时间:2018-09-20 21:00:00', 'location': None}, {'time': '2018-09-19 17:01:47', 'ftime': '2018-09-19 17:01:47', 'context': ' 配送员：叶振明已出发，手机号：15695650038或0551-63710388，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-19 16:46:21', 'ftime': '2018-09-19 16:46:21', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-19 21:00:00', 'location': None}, {'time': '2018-09-19 14:05:43', 'ftime': '2018-09-19 14:05:43', 'context': ' 配送员：邵建合已出发，手机号：18556365618或0551-63710388，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-19 14:04:21', 'ftime': '2018-09-19 14:04:21', 'context': ' 取件任务分配给包河站', 'location': None}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.06780799999999999</v>
+        <v>0.077917</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.008791</v>
+        <v>0.009323</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 20:08:00', 'ftime': '2019-09-28 20:08:00', 'context': '【金华市】 已离开 浙江金华永康直跑分拨点 发往 湖北武汉分拨中心', 'location': ''}, {'time': '2019-09-28 19:20:00', 'ftime': '2019-09-28 19:20:00', 'context': '【金华市】 浙江武义县公司-杨谦(15957970532) 已揽收', 'location': ''}, {'time': '2019-09-28 10:28:00', 'ftime': '2019-09-28 10:28:00', 'context': '到达浙江金华国际转运中心，转韵达速递4301148927664', 'location': ''}, {'time': '2019-09-27 19:17:00', 'ftime': '2019-09-27 19:17:00', 'context': '清关完成，下一站浙江国际转运中心', 'location': ''}, {'time': '2019-09-26 15:39:00', 'ftime': '2019-09-26 15:39:00', 'context': '抵达上海浦东机场，委托办理清关手续', 'location': ''}, {'time': '2019-09-25 14:25:00', 'ftime': '2019-09-25 14:25:00', 'context': 'Bangkok Suvarnabhumi International Airport机场海关已放行', 'location': ''}, {'time': '2019-09-24 10:51:00', 'ftime': '2019-09-24 10:51:00', 'context': 'Bangkok 曼谷仓库扫描拍照，发往Bangkok Suvarnabhumi International Airport物流中心 ', 'location': ''}, {'time': '2019-09-23 21:38:00', 'ftime': '2019-09-23 21:38:00', 'context': 'Bangkok Khwaeng Huai Khwang 已揽件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 10:20:41', 'ftime': '2019-09-29 10:20:41', 'context': '[无锡市]西渚支局】安排投递,投递员:任雷,电话:18861793235', 'location': None}, {'time': '2019-09-29 08:55:43', 'ftime': '2019-09-29 08:55:43', 'context': '[无锡市]离开【邮政宜兴市邮件】,下一站【西渚支局】', 'location': None}, {'time': '2019-09-29 00:18:33', 'ftime': '2019-09-29 00:18:33', 'context': '[无锡市]到达【无锡集散】', 'location': None}, {'time': '2019-09-28 20:58:16', 'ftime': '2019-09-28 20:58:16', 'context': '[绍兴市]离开【绍兴速递邮件处理中心】,下一站【无锡集散】', 'location': None}, {'time': '2019-09-28 18:13:31', 'ftime': '2019-09-28 18:13:31', 'context': '[绍兴市]到达【邮政绍兴中心】', 'location': None}, {'time': '2019-09-28 15:08:51', 'ftime': '2019-09-28 15:08:51', 'context': '离开【邮政绍兴市柯桥区柯岩】,下一站【绍兴中心】', 'location': None}, {'time': '2019-09-28 10:00:00', 'ftime': '2019-09-28 10:00:00', 'context': '【绍兴市柯岩所】已收件', 'location': None}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.068923</v>
+        <v>0.070201</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1564,11 +1564,11 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.009488</v>
+        <v>0.010667</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (8).xlsx
+++ b/data_excel/接口测试用例_ (8).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-09-14 17:14:57', 'ftime': '2018-09-14 17:14:57', 'context': ' 取件单已经终止', 'location': None}, {'time': '2018-09-14 16:52:23', 'ftime': '2018-09-14 16:52:23', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-14 21:00:00', 'location': None}, {'time': '2018-09-14 14:25:48', 'ftime': '2018-09-14 14:25:48', 'context': ' 配送员：田群利已出发，手机号：15633269852，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-14 14:01:29', 'ftime': '2018-09-14 14:01:29', 'context': ' 取件任务分配给保定安新站', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-26 16:33:28', 'ftime': '2019-09-26 16:33:28', 'context': '客户签收人: 靳永霞 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：13201392530，投诉电话：0991-6664426', 'location': ''}, {'time': '2019-09-26 09:20:19', 'ftime': '2019-09-26 09:20:19', 'context': '【新疆乌鲁木齐市天津南路公司】 派件中 派件人: 孙道杰 电话 13201392530 如有疑问，请联系：0991-6664426', 'location': ''}, {'time': '2019-09-26 08:21:01', 'ftime': '2019-09-26 08:21:01', 'context': '【新疆乌鲁木齐市天津南路公司】 已收入', 'location': ''}, {'time': '2019-09-25 14:09:26', 'ftime': '2019-09-25 14:09:26', 'context': '【新疆乌鲁木齐市】 已发出 下一站 【新疆乌鲁木齐市天津南路】', 'location': ''}, {'time': '2019-09-25 11:08:34', 'ftime': '2019-09-25 11:08:34', 'context': '【新疆乌鲁木齐市公司】 已收入', 'location': ''}, {'time': '2019-09-23 05:25:50', 'ftime': '2019-09-23 05:25:50', 'context': '【西安转运中心】 已发出 下一站 【新疆乌鲁木齐市】', 'location': ''}, {'time': '2019-09-23 04:56:43', 'ftime': '2019-09-23 04:56:43', 'context': '【西安转运中心公司】 已打包', 'location': ''}, {'time': '2019-09-23 01:51:26', 'ftime': '2019-09-23 01:51:26', 'context': '【西安转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-22 19:32:52', 'ftime': '2019-09-22 19:32:52', 'context': '【甘肃省平凉市】 已发出 下一站 【西安转运中心】', 'location': ''}, {'time': '2019-09-22 17:48:54', 'ftime': '2019-09-22 17:48:54', 'context': '【甘肃省平凉市公司】 已收入', 'location': ''}, {'time': '2019-09-22 10:24:43', 'ftime': '2019-09-22 10:24:43', 'context': '【甘肃省平凉市崆峒区东郊分部公司】 已收件 取件人: 陆海梦 (13399338805)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.072717</v>
+        <v>0.06929200000000001</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.009424999999999999</v>
+        <v>0.009514</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 16:30:16', 'ftime': '2019-09-28 16:30:16', 'context': '浙江义乌公司-已发往-河北石家庄转运中心', 'location': ''}, {'time': '2019-09-28 16:30:16', 'ftime': '2019-09-28 16:30:16', 'context': '浙江义乌公司-已进行装袋扫描', 'location': ''}, {'time': '2019-09-28 16:25:46', 'ftime': '2019-09-28 16:25:46', 'context': '浙江义乌公司-丰巢2(0579-85456666)-已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 20:54:22', 'ftime': '2019-09-28 20:54:22', 'context': '[浙江义乌分拨中心]进行装车扫描，发往：河南漯河分拨中心', 'location': '浙江义乌分拨中心'}, {'time': '2019-09-28 20:52:36', 'ftime': '2019-09-28 20:52:36', 'context': '[浙江义乌分拨中心]在分拨中心进行称重扫描', 'location': '浙江义乌分拨中心'}, {'time': '2019-09-28 19:29:04', 'ftime': '2019-09-28 19:29:04', 'context': '[浙江义乌北苑公司]进行下级地点扫描，发往：河南郑州公司', 'location': '浙江义乌北苑公司'}, {'time': '2019-09-28 19:14:15', 'ftime': '2019-09-28 19:14:15', 'context': '[浙江义乌北苑公司]进行揽件扫描', 'location': '浙江义乌北苑公司'}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.069164</v>
+        <v>0.069962</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.008132</v>
+        <v>0.009324000000000001</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 22:08:19', 'ftime': '2019-09-28 22:08:19', 'context': '【菏泽转运中心】 已发出 下一站 【嘉兴转运中心】', 'location': ''}, {'time': '2019-09-28 22:03:52', 'ftime': '2019-09-28 22:03:52', 'context': '【菏泽转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 17:42:53', 'ftime': '2019-09-28 17:42:53', 'context': '【山东省枣庄市滕州市】 已发出 下一站 【菏泽转运中心】', 'location': ''}, {'time': '2019-09-28 13:38:30', 'ftime': '2019-09-28 13:38:30', 'context': '【山东省枣庄市滕州市公司】 已打包', 'location': ''}, {'time': '2019-09-28 12:44:05', 'ftime': '2019-09-28 12:44:05', 'context': '【山东省枣庄市滕州市公司】 已收件 取件人: 田磊 (13276370535)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 08:35:52', 'ftime': '2019-09-28 08:35:52', 'context': '[浙江省 杭州市 桐庐一部]快件 已到达 桐庐一部', 'location': '浙江省 杭州市 桐庐一部'}, {'time': '2019-09-28 05:22:19', 'ftime': '2019-09-28 05:22:19', 'context': '[浙江省 杭州市 杭州分拨中心]快件 已从 杭州分拨中心 发出', 'location': '浙江省 杭州市 杭州分拨中心'}, {'time': '2019-09-27 22:30:38', 'ftime': '2019-09-27 22:30:38', 'context': '[浙江省 杭州市 杭州分拨中心]快件 已到达 杭州分拨中心', 'location': '浙江省 杭州市 杭州分拨中心'}, {'time': '2019-09-27 19:37:49', 'ftime': '2019-09-27 19:37:49', 'context': '[浙江省 杭州市 萧山闻堰站]快件 已从 萧山闻堰站 发出', 'location': '浙江省 杭州市 萧山闻堰站'}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.07850600000000001</v>
+        <v>0.07388500000000001</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.009683000000000001</v>
+        <v>0.010202</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 18:29:30', 'ftime': '2019-09-28 18:29:30', 'context': '[淮安市]淮安市【淮安转运中心】，正发往【扬州转运中心】', 'location': None}, {'time': '2019-09-28 18:26:21', 'ftime': '2019-09-28 18:26:21', 'context': '[淮安市]到淮安市【淮安转运中心】', 'location': None}, {'time': '2019-09-28 00:51:11', 'ftime': '2019-09-28 00:51:11', 'context': '[武汉市]武汉市【武汉转运中心】，正发往【淮安转运中心】', 'location': None}, {'time': '2019-09-28 00:45:48', 'ftime': '2019-09-28 00:45:48', 'context': '[武汉市]到武汉市【武汉转运中心】', 'location': None}, {'time': '2019-09-27 17:24:37', 'ftime': '2019-09-27 17:24:37', 'context': '[武汉市]武汉市【武汉三阳路分部】，【卡嘉易/15377683290】已揽收', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 09:32:19', 'ftime': '2019-09-29 09:32:19', 'context': '江苏常熟速尔的 李运海区域 正在派件', 'location': ''}, {'time': '2019-09-29 09:13:04', 'ftime': '2019-09-29 09:13:04', 'context': '快件已到达江苏常熟 上一站是 无锡中心', 'location': ''}, {'time': '2019-09-29 04:43:30', 'ftime': '2019-09-29 04:43:30', 'context': '由无锡中心 发往 江苏常熟', 'location': ''}, {'time': '2019-09-29 04:41:20', 'ftime': '2019-09-29 04:41:20', 'context': '快件已到达无锡中心 上一站是 虎门中心', 'location': ''}, {'time': '2019-09-28 00:22:33', 'ftime': '2019-09-28 00:22:33', 'context': '由虎门中心 发往 无锡中心', 'location': ''}, {'time': '2019-09-27 23:31:35', 'ftime': '2019-09-27 23:31:35', 'context': '快件已到达虎门中心 上一站是 大朗', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.07037599999999999</v>
+        <v>0.069617</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.009894</v>
+        <v>0.009131</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 07:49:23', 'ftime': '2019-09-29 07:49:23', 'context': '[柳州市]【柳州市南站营业部】安排投递,投递员:蒋敏,电话:18877221253', 'location': '柳州市'}, {'time': '2019-09-29 06:27:17', 'ftime': '2019-09-29 06:27:17', 'context': '[柳州市]离开【柳州市邮件处理中心】,下一站【柳州市南站营业部】', 'location': '柳州市'}, {'time': '2019-09-28 23:49:20', 'ftime': '2019-09-28 23:49:20', 'context': '[柳州市]到达【柳州市邮件处理中心】', 'location': '柳州市'}, {'time': '2019-09-28 19:56:14', 'ftime': '2019-09-28 19:56:14', 'context': '[桂林市]离开【桂林市邮件处理中心】,下一站【柳州市邮件处理中心】', 'location': '桂林市'}, {'time': '2019-09-28 19:19:15', 'ftime': '2019-09-28 19:19:15', 'context': '[桂林市]到达【桂林市邮件处理中心】', 'location': '桂林市'}, {'time': '2019-09-28 17:09:33', 'ftime': '2019-09-28 17:09:33', 'context': '[桂林市]离开【灌阳县处理中心（营业部）】,下一站【中国邮政集团公司桂林市分公司邮件处理中心】', 'location': '桂林市'}, {'time': '2019-09-28 10:42:08', 'ftime': '2019-09-28 10:42:08', 'context': '[桂林市]【灌阳县处理中心（营业部）】已收件,揽投员:卿柱军,电话:19997908602', 'location': '桂林市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-25 23:13:48', 'ftime': '2019-07-25 23:13:48', 'context': '[湖南株洲公司合泰分部]快件已被 已签收 签收', 'location': '湖南株洲公司合泰分部'}, {'time': '2019-07-25 20:34:10', 'ftime': '2019-07-25 20:34:10', 'context': '[湖南株洲公司合泰分部]进行派件扫描；派送业务员：唐玉林；联系电话：18773313569', 'location': '湖南株洲公司合泰分部'}, {'time': '2019-07-25 14:06:12', 'ftime': '2019-07-25 14:06:12', 'context': '[湖南长沙分拨中心]从站点发出，本次转运目的地：湖南株洲公司', 'location': '湖南长沙分拨中心'}, {'time': '2019-07-25 14:02:12', 'ftime': '2019-07-25 14:02:12', 'context': '[湖南长沙分拨中心]在分拨中心进行卸车扫描', 'location': '湖南长沙分拨中心'}, {'time': '2019-07-25 03:04:10', 'ftime': '2019-07-25 03:04:10', 'context': '[广东广州分拨中心]进行装车扫描，发往：湖南长沙分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-07-25 03:01:25', 'ftime': '2019-07-25 03:01:25', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': '广东广州分拨中心'}, {'time': '2019-07-24 23:40:21', 'ftime': '2019-07-24 23:40:21', 'context': '[广东主城区公司广州白云区新广从服务部]进行下级地点扫描，发往：湖南株洲公司', 'location': '广东主城区公司广州白云区新广从服务部'}, {'time': '2019-07-24 19:46:22', 'ftime': '2019-07-24 19:46:22', 'context': '[广东主城区公司广州白云区新广从服务部]进行揽件扫描', 'location': '广东主城区公司广州白云区新广从服务部'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.071409</v>
+        <v>0.074585</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.010085</v>
+        <v>0.013942</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 01:00:41', 'ftime': '2019-09-29 01:00:41', 'context': '【泉州转运中心】 已发出 下一站 【成都转运中心】', 'location': ''}, {'time': '2019-09-29 00:55:55', 'ftime': '2019-09-29 00:55:55', 'context': '【泉州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 22:40:58', 'ftime': '2019-09-28 22:40:58', 'context': '【福建省泉州市晋江市磁灶镇】 已发出 下一站 【泉州转运中心】', 'location': ''}, {'time': '2019-09-28 20:28:05', 'ftime': '2019-09-28 20:28:05', 'context': '【福建省泉州市晋江市磁灶镇公司】 已收件 取件人: 庄玉兰 (15960580226)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-19 10:28:29', 'context': '查无结果', 'ftime': '2019-09-19 10:28:29'}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.07413699999999999</v>
+        <v>0.06381299999999999</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.010409</v>
+        <v>0.009334</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 16:57:32', 'ftime': '2019-09-28 16:57:32', 'context': '【长春转运中心】 已发出 下一站 【内蒙古兴安盟乌兰浩特市】', 'location': ''}, {'time': '2019-09-28 16:51:06', 'ftime': '2019-09-28 16:51:06', 'context': '【长春转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 03:33:44', 'ftime': '2019-09-27 03:33:44', 'context': '【杭州转运中心】 已发出 下一站 【长春转运中心】', 'location': ''}, {'time': '2019-09-27 03:27:06', 'ftime': '2019-09-27 03:27:06', 'context': '【杭州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 23:05:22', 'ftime': '2019-09-26 23:05:22', 'context': '【临海转运中心】 已发出 下一站 【杭州转运中心】', 'location': ''}, {'time': '2019-09-26 23:01:57', 'ftime': '2019-09-26 23:01:57', 'context': '【临海转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 20:42:36', 'ftime': '2019-09-26 20:42:36', 'context': '【浙江省台州市路桥区】 已发出 下一站 【临海转运中心】', 'location': ''}, {'time': '2019-09-26 20:12:24', 'ftime': '2019-09-26 20:12:24', 'context': '【浙江省台州市路桥区公司】 已打包', 'location': ''}, {'time': '2019-09-26 17:07:21', 'ftime': '2019-09-26 17:07:21', 'context': '【浙江省台州市路桥区公司】 已收件 取件人: 尤梦 (18521109602)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-28 21:08:00', 'ftime': '2019-09-28 21:08:00', 'context': '【苏州市】 【常熟天下淘宝十一】（13328020551） 的 刘小四（00000） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.069122</v>
+        <v>0.072992</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.009613</v>
+        <v>0.008732999999999999</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-09-22 22:32:19', 'ftime': '2018-09-22 22:32:19', 'context': ' 取件单已经终止', 'location': None}, {'time': '2018-09-22 20:50:30', 'ftime': '2018-09-22 20:50:30', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-23 21:00:00', 'location': None}, {'time': '2018-09-22 17:26:32', 'ftime': '2018-09-22 17:26:32', 'context': ' 配送员：叶振明已出发，手机号：15695650038或0551-63710388，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-22 15:44:23', 'ftime': '2018-09-22 15:44:23', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-22 21:00:00', 'location': None}, {'time': '2018-09-22 12:50:30', 'ftime': '2018-09-22 12:50:30', 'context': ' 配送员：叶振明已出发，手机号：15695650038或0551-63710388，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-22 12:18:50', 'ftime': '2018-09-22 12:18:50', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-22 21:00:00', 'location': None}, {'time': '2018-09-22 08:08:12', 'ftime': '2018-09-22 08:08:12', 'context': ' 配送员：叶振明已出发，手机号：15695650038或0551-63710388，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-21 19:45:01', 'ftime': '2018-09-21 19:45:01', 'context': ' 上门取件失败，准备再次取件，原因：客户更改配送时间，备注：再投无备注下次再投时间:2018-09-22 21:00:00', 'location': None}, {'time': '2018-09-21 17:59:56', 'ftime': '2018-09-21 17:59:56', 'context': ' 配送员：叶振明已出发，手机号：15695650038或0551-63710388，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-21 15:10:49', 'ftime': '2018-09-21 15:10:49', 'context': ' 上门取件失败，准备再次取件，原因：客户更改配送时间，备注：再投无备注下次再投时间:2018-09-21 21:00:00', 'location': None}, {'time': '2018-09-21 13:09:09', 'ftime': '2018-09-21 13:09:09', 'context': ' 配送员：叶振明已出发，手机号：15695650038或0551-63710388，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-21 12:18:15', 'ftime': '2018-09-21 12:18:15', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-21 19:00:00', 'location': None}, {'time': '2018-09-21 09:52:02', 'ftime': '2018-09-21 09:52:02', 'context': ' 配送员：叶振明已出发，手机号：15695650038或0551-63710388，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-20 15:54:19', 'ftime': '2018-09-20 15:54:19', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-21 21:00:00', 'location': None}, {'time': '2018-09-20 13:33:56', 'ftime': '2018-09-20 13:33:56', 'context': ' 配送员：叶振明已出发，手机号：15695650038或0551-63710388，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-20 12:21:28', 'ftime': '2018-09-20 12:21:28', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-20 21:00:00', 'location': None}, {'time': '2018-09-20 09:38:00', 'ftime': '2018-09-20 09:38:00', 'context': ' 配送员：叶振明已出发，手机号：15695650038或0551-63710388，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-19 20:12:07', 'ftime': '2018-09-19 20:12:07', 'context': ' 上门取件失败，准备再次取件，原因：客户更改配送时间，备注：再投无备注下次再投时间:2018-09-20 21:00:00', 'location': None}, {'time': '2018-09-19 17:01:47', 'ftime': '2018-09-19 17:01:47', 'context': ' 配送员：叶振明已出发，手机号：15695650038或0551-63710388，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-19 16:46:21', 'ftime': '2018-09-19 16:46:21', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-19 21:00:00', 'location': None}, {'time': '2018-09-19 14:05:43', 'ftime': '2018-09-19 14:05:43', 'context': ' 配送员：邵建合已出发，手机号：18556365618或0551-63710388，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-19 14:04:21', 'ftime': '2018-09-19 14:04:21', 'context': ' 取件任务分配给包河站', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 20:12:00', 'ftime': '2019-09-28 20:12:00', 'context': '已签收,签收人是（139****1604）先生/女士，风里来，雨里去，汗也撒泪也流，申通小哥一刻不停留。不求服务惊天下，但求好评动我心，给个好评呗！！如有疑问请联系派件员金山路区域(13774592003,023-62832622)，感谢使用申通快递，期待再次为您服务', 'location': ''}, {'time': '2019-09-28 16:36:42', 'ftime': '2019-09-28 16:36:42', 'context': '快件派送至快递柜【秀苑大厦1单元大门旁丰巢智能柜】，派件员:金山路区域(13774592003,023-62832622)', 'location': ''}, {'time': '2019-09-28 15:06:34', 'ftime': '2019-09-28 15:06:34', 'context': '重庆南坪公司-金山路区域(13774592003,023-62832622)-派件中', 'location': ''}, {'time': '2019-09-28 14:21:34', 'ftime': '2019-09-28 14:21:34', 'context': '已到达-重庆南坪公司', 'location': ''}, {'time': '2019-09-28 13:41:58', 'ftime': '2019-09-28 13:41:58', 'context': '已到达-重庆南坪公司', 'location': ''}, {'time': '2019-09-28 11:23:34', 'ftime': '2019-09-28 11:23:34', 'context': '重庆转运中心-已发往-重庆南坪公司', 'location': ''}, {'time': '2019-09-28 11:06:51', 'ftime': '2019-09-28 11:06:51', 'context': '已到达-重庆转运中心', 'location': ''}, {'time': '2019-09-25 21:14:58', 'ftime': '2019-09-25 21:14:58', 'context': '浙江嘉兴转运中心-已装袋发往-重庆转运中心', 'location': ''}, {'time': '2019-09-25 21:14:58', 'ftime': '2019-09-25 21:14:58', 'context': '浙江嘉兴转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-25 20:57:16', 'ftime': '2019-09-25 20:57:16', 'context': '已到达-浙江嘉兴转运中心', 'location': ''}, {'time': '2019-09-25 20:01:36', 'ftime': '2019-09-25 20:01:36', 'context': '浙江桐乡公司-已装袋发往-浙江嘉兴转运中心', 'location': ''}, {'time': '2019-09-25 20:01:36', 'ftime': '2019-09-25 20:01:36', 'context': '浙江桐乡公司-已进行装车扫描', 'location': ''}, {'time': '2019-09-25 19:14:49', 'ftime': '2019-09-25 19:14:49', 'context': '浙江桐乡公司-已发往-浙江嘉兴转运中心', 'location': ''}, {'time': '2019-09-25 19:14:49', 'ftime': '2019-09-25 19:14:49', 'context': '浙江桐乡公司-已进行装袋扫描', 'location': ''}, {'time': '2019-09-25 19:09:19', 'ftime': '2019-09-25 19:09:19', 'context': '浙江桐乡公司-浙江桐乡公司-已收件', 'location': ''}, {'time': '2019-09-25 17:39:30', 'ftime': '2019-09-25 17:39:30', 'context': '浙江桐乡公司-濮院杨松等(17769629202,0573-88931111)-已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.077917</v>
+        <v>0.072037</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.009323</v>
+        <v>0.007911</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 10:20:41', 'ftime': '2019-09-29 10:20:41', 'context': '[无锡市]西渚支局】安排投递,投递员:任雷,电话:18861793235', 'location': None}, {'time': '2019-09-29 08:55:43', 'ftime': '2019-09-29 08:55:43', 'context': '[无锡市]离开【邮政宜兴市邮件】,下一站【西渚支局】', 'location': None}, {'time': '2019-09-29 00:18:33', 'ftime': '2019-09-29 00:18:33', 'context': '[无锡市]到达【无锡集散】', 'location': None}, {'time': '2019-09-28 20:58:16', 'ftime': '2019-09-28 20:58:16', 'context': '[绍兴市]离开【绍兴速递邮件处理中心】,下一站【无锡集散】', 'location': None}, {'time': '2019-09-28 18:13:31', 'ftime': '2019-09-28 18:13:31', 'context': '[绍兴市]到达【邮政绍兴中心】', 'location': None}, {'time': '2019-09-28 15:08:51', 'ftime': '2019-09-28 15:08:51', 'context': '离开【邮政绍兴市柯桥区柯岩】,下一站【绍兴中心】', 'location': None}, {'time': '2019-09-28 10:00:00', 'ftime': '2019-09-28 10:00:00', 'context': '【绍兴市柯岩所】已收件', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 23:01:08', 'ftime': '2019-09-28 23:01:08', 'context': '[四川成都国际广场公司]快件已被 大有智慧左测蜂巢柜（拍照） 代签收如有问题请联系袁茂淇【17313104568】。', 'location': None}, {'time': '2019-09-28 18:16:33', 'ftime': '2019-09-28 18:16:33', 'context': '[四川成都国际广场公司]进行派件扫描；派送业务员：袁茂淇；联系电话：17313104568', 'location': None}, {'time': '2019-09-28 16:38:33', 'ftime': '2019-09-28 16:38:33', 'context': '[四川成都国际广场公司]到达目的地网点，快件很快进行派送', 'location': None}, {'time': '2019-09-28 12:48:47', 'ftime': '2019-09-28 12:48:47', 'context': '[四川成都分拨中心]从站点发出，本次转运目的地：四川成都国际广场公司', 'location': None}, {'time': '2019-09-28 12:43:24', 'ftime': '2019-09-28 12:43:24', 'context': '[四川成都分拨中心]在分拨中心进行卸车扫描', 'location': None}, {'time': '2019-09-27 21:09:05', 'ftime': '2019-09-27 21:09:05', 'context': '[陕西西安分拨中心]进行装车扫描，发往：四川成都分拨中心', 'location': None}, {'time': '2019-09-27 21:05:03', 'ftime': '2019-09-27 21:05:03', 'context': '[陕西西安分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-09-27 17:06:26', 'ftime': '2019-09-27 17:06:26', 'context': '[陕西武功县公司]进行揽件扫描', 'location': None}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.070201</v>
+        <v>0.076486</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.010667</v>
+        <v>0.010374</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (8).xlsx
+++ b/data_excel/接口测试用例_ (8).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-26 16:33:28', 'ftime': '2019-09-26 16:33:28', 'context': '客户签收人: 靳永霞 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：13201392530，投诉电话：0991-6664426', 'location': ''}, {'time': '2019-09-26 09:20:19', 'ftime': '2019-09-26 09:20:19', 'context': '【新疆乌鲁木齐市天津南路公司】 派件中 派件人: 孙道杰 电话 13201392530 如有疑问，请联系：0991-6664426', 'location': ''}, {'time': '2019-09-26 08:21:01', 'ftime': '2019-09-26 08:21:01', 'context': '【新疆乌鲁木齐市天津南路公司】 已收入', 'location': ''}, {'time': '2019-09-25 14:09:26', 'ftime': '2019-09-25 14:09:26', 'context': '【新疆乌鲁木齐市】 已发出 下一站 【新疆乌鲁木齐市天津南路】', 'location': ''}, {'time': '2019-09-25 11:08:34', 'ftime': '2019-09-25 11:08:34', 'context': '【新疆乌鲁木齐市公司】 已收入', 'location': ''}, {'time': '2019-09-23 05:25:50', 'ftime': '2019-09-23 05:25:50', 'context': '【西安转运中心】 已发出 下一站 【新疆乌鲁木齐市】', 'location': ''}, {'time': '2019-09-23 04:56:43', 'ftime': '2019-09-23 04:56:43', 'context': '【西安转运中心公司】 已打包', 'location': ''}, {'time': '2019-09-23 01:51:26', 'ftime': '2019-09-23 01:51:26', 'context': '【西安转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-22 19:32:52', 'ftime': '2019-09-22 19:32:52', 'context': '【甘肃省平凉市】 已发出 下一站 【西安转运中心】', 'location': ''}, {'time': '2019-09-22 17:48:54', 'ftime': '2019-09-22 17:48:54', 'context': '【甘肃省平凉市公司】 已收入', 'location': ''}, {'time': '2019-09-22 10:24:43', 'ftime': '2019-09-22 10:24:43', 'context': '【甘肃省平凉市崆峒区东郊分部公司】 已收件 取件人: 陆海梦 (13399338805)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-27 17:06:46', 'ftime': '2019-09-27 17:06:46', 'context': '[台州市]台州市【黄岩二部】，已送达，查件请电联15057624332请不要打总部电话，我会第一时间为您处理 已签收', 'location': '台州市'}, {'time': '2019-09-27 12:59:54', 'ftime': '2019-09-27 12:59:54', 'context': '[台州市]台州市【黄岩二部】，【张露/15057624332】正在派件', 'location': '台州市'}, {'time': '2019-09-27 08:15:43', 'ftime': '2019-09-27 08:15:43', 'context': '[台州市]到台州市【黄岩二部】', 'location': '台州市'}, {'time': '2019-09-27 03:38:50', 'ftime': '2019-09-27 03:38:50', 'context': '[台州市]台州市【台州转运中心】，正发往【黄岩二部】', 'location': '台州市'}, {'time': '2019-09-27 03:30:56', 'ftime': '2019-09-27 03:30:56', 'context': '[台州市]到台州市【台州转运中心】', 'location': '台州市'}, {'time': '2019-09-26 10:03:26', 'ftime': '2019-09-26 10:03:26', 'context': '[金华市]金华市【金华转运中心】，正发往【台州转运中心】', 'location': '金华市'}, {'time': '2019-09-26 10:00:53', 'ftime': '2019-09-26 10:00:53', 'context': '[金华市]到金华市【金华转运中心】', 'location': '金华市'}, {'time': '2019-09-25 18:49:16', 'ftime': '2019-09-25 18:49:16', 'context': '[临沂市]临沂市【临沂转运中心】，正发往【金华转运中心】', 'location': '临沂市'}, {'time': '2019-09-25 18:47:56', 'ftime': '2019-09-25 18:47:56', 'context': '[临沂市]到临沂市【临沂转运中心】', 'location': '临沂市'}, {'time': '2019-09-25 15:47:09', 'ftime': '2019-09-25 15:47:09', 'context': '[临沂市]临沂市【沂南】，【刘爱琴/15168923128】已揽收', 'location': '临沂市'}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.06929200000000001</v>
+        <v>0.07111199999999999</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -671,11 +671,11 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.009514</v>
+        <v>0.035807</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 20:54:22', 'ftime': '2019-09-28 20:54:22', 'context': '[浙江义乌分拨中心]进行装车扫描，发往：河南漯河分拨中心', 'location': '浙江义乌分拨中心'}, {'time': '2019-09-28 20:52:36', 'ftime': '2019-09-28 20:52:36', 'context': '[浙江义乌分拨中心]在分拨中心进行称重扫描', 'location': '浙江义乌分拨中心'}, {'time': '2019-09-28 19:29:04', 'ftime': '2019-09-28 19:29:04', 'context': '[浙江义乌北苑公司]进行下级地点扫描，发往：河南郑州公司', 'location': '浙江义乌北苑公司'}, {'time': '2019-09-28 19:14:15', 'ftime': '2019-09-28 19:14:15', 'context': '[浙江义乌北苑公司]进行揽件扫描', 'location': '浙江义乌北苑公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 09:52:11', 'ftime': '2019-09-28 09:52:11', 'context': '[苏州市石路揽投部]在 苏州市 已签收,他人代收：孙,投递员:张海军,电话:18962162792', 'location': '苏州市石路揽投部'}, {'time': '2019-09-28 07:46:27', 'ftime': '2019-09-28 07:46:27', 'context': '【苏州市石路揽投部】安排投递,投递员:张海军,电话:18962162792', 'location': '苏州市石路揽投部'}, {'time': '2019-09-28 07:26:34', 'ftime': '2019-09-28 07:26:34', 'context': '到达【苏州市石路揽投部】', 'location': '苏州市石路揽投部'}, {'time': '2019-09-28 06:02:45', 'ftime': '2019-09-28 06:02:45', 'context': '离开【邮政苏州市邮件处理分局】,下一站【苏州市石路揽投部】', 'location': '邮政苏州市邮件处理分局'}, {'time': '2019-09-28 01:00:16', 'ftime': '2019-09-28 01:00:16', 'context': '到达【邮政苏州市邮件处理分局】', 'location': '邮政苏州市邮件处理分局'}, {'time': '2019-09-27 03:52:03', 'ftime': '2019-09-27 03:52:03', 'context': '离开【西安中心】,下一站【邮政苏州市邮件处理分局】（经转）', 'location': '西安中心'}, {'time': '2019-09-26 21:15:03', 'ftime': '2019-09-26 21:15:03', 'context': '到达【西安中心】（经转）', 'location': '西安中心'}, {'time': '2019-09-26 19:53:57', 'ftime': '2019-09-26 19:53:57', 'context': '离开【铜川市本部网路运营中心】,下一站【西安中心】', 'location': '铜川市本部网路运营中心'}, {'time': '2019-09-26 18:37:01', 'ftime': '2019-09-26 18:37:01', 'context': '到达【铜川市本部网路运营中心】', 'location': '铜川市本部网路运营中心'}, {'time': '2019-09-26 17:43:41', 'ftime': '2019-09-26 17:43:41', 'context': '离开【铜川印台】,下一站【铜川中心】', 'location': '铜川印台'}, {'time': '2019-09-26 15:09:38', 'ftime': '2019-09-26 15:09:38', 'context': '铜川市 【铜川印台】已收件,揽投员:罗贵峰,电话:15229198023', 'location': '铜川印台'}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.069962</v>
+        <v>0.06930600000000001</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -777,11 +777,11 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.009324000000000001</v>
+        <v>0.009050000000000001</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 08:35:52', 'ftime': '2019-09-28 08:35:52', 'context': '[浙江省 杭州市 桐庐一部]快件 已到达 桐庐一部', 'location': '浙江省 杭州市 桐庐一部'}, {'time': '2019-09-28 05:22:19', 'ftime': '2019-09-28 05:22:19', 'context': '[浙江省 杭州市 杭州分拨中心]快件 已从 杭州分拨中心 发出', 'location': '浙江省 杭州市 杭州分拨中心'}, {'time': '2019-09-27 22:30:38', 'ftime': '2019-09-27 22:30:38', 'context': '[浙江省 杭州市 杭州分拨中心]快件 已到达 杭州分拨中心', 'location': '浙江省 杭州市 杭州分拨中心'}, {'time': '2019-09-27 19:37:49', 'ftime': '2019-09-27 19:37:49', 'context': '[浙江省 杭州市 萧山闻堰站]快件 已从 萧山闻堰站 发出', 'location': '浙江省 杭州市 萧山闻堰站'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-25 15:14:17', 'ftime': '2019-09-25 15:14:17', 'context': '航班已从始发地起飞', 'location': ''}, {'time': '2019-09-25 15:14:07', 'ftime': '2019-09-25 15:14:07', 'context': '出库发运', 'location': ''}, {'time': '2019-09-24 11:07:21', 'ftime': '2019-09-24 11:07:21', 'context': '德国 入库收寄', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.07388500000000001</v>
+        <v>0.102442</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.010202</v>
+        <v>0.009348</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 09:32:19', 'ftime': '2019-09-29 09:32:19', 'context': '江苏常熟速尔的 李运海区域 正在派件', 'location': ''}, {'time': '2019-09-29 09:13:04', 'ftime': '2019-09-29 09:13:04', 'context': '快件已到达江苏常熟 上一站是 无锡中心', 'location': ''}, {'time': '2019-09-29 04:43:30', 'ftime': '2019-09-29 04:43:30', 'context': '由无锡中心 发往 江苏常熟', 'location': ''}, {'time': '2019-09-29 04:41:20', 'ftime': '2019-09-29 04:41:20', 'context': '快件已到达无锡中心 上一站是 虎门中心', 'location': ''}, {'time': '2019-09-28 00:22:33', 'ftime': '2019-09-28 00:22:33', 'context': '由虎门中心 发往 无锡中心', 'location': ''}, {'time': '2019-09-27 23:31:35', 'ftime': '2019-09-27 23:31:35', 'context': '快件已到达虎门中心 上一站是 大朗', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-20 16:10:58', 'context': '查无结果', 'ftime': '2019-09-20 16:10:58'}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.069617</v>
+        <v>0.065567</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -989,11 +989,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.009131</v>
+        <v>0.02884</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-25 23:13:48', 'ftime': '2019-07-25 23:13:48', 'context': '[湖南株洲公司合泰分部]快件已被 已签收 签收', 'location': '湖南株洲公司合泰分部'}, {'time': '2019-07-25 20:34:10', 'ftime': '2019-07-25 20:34:10', 'context': '[湖南株洲公司合泰分部]进行派件扫描；派送业务员：唐玉林；联系电话：18773313569', 'location': '湖南株洲公司合泰分部'}, {'time': '2019-07-25 14:06:12', 'ftime': '2019-07-25 14:06:12', 'context': '[湖南长沙分拨中心]从站点发出，本次转运目的地：湖南株洲公司', 'location': '湖南长沙分拨中心'}, {'time': '2019-07-25 14:02:12', 'ftime': '2019-07-25 14:02:12', 'context': '[湖南长沙分拨中心]在分拨中心进行卸车扫描', 'location': '湖南长沙分拨中心'}, {'time': '2019-07-25 03:04:10', 'ftime': '2019-07-25 03:04:10', 'context': '[广东广州分拨中心]进行装车扫描，发往：湖南长沙分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-07-25 03:01:25', 'ftime': '2019-07-25 03:01:25', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': '广东广州分拨中心'}, {'time': '2019-07-24 23:40:21', 'ftime': '2019-07-24 23:40:21', 'context': '[广东主城区公司广州白云区新广从服务部]进行下级地点扫描，发往：湖南株洲公司', 'location': '广东主城区公司广州白云区新广从服务部'}, {'time': '2019-07-24 19:46:22', 'ftime': '2019-07-24 19:46:22', 'context': '[广东主城区公司广州白云区新广从服务部]进行揽件扫描', 'location': '广东主城区公司广州白云区新广从服务部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-06 16:10:58', 'context': '查无结果', 'ftime': '2019-09-06 16:10:58'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.074585</v>
+        <v>0.064086</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.013942</v>
+        <v>0.025187</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-19 10:28:29', 'context': '查无结果', 'ftime': '2019-09-19 10:28:29'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-18 16:10:58', 'context': '查无结果', 'ftime': '2019-09-18 16:10:58'}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.06381299999999999</v>
+        <v>0.067471</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.009334</v>
+        <v>0.052472</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-28 21:08:00', 'ftime': '2019-09-28 21:08:00', 'context': '【苏州市】 【常熟天下淘宝十一】（13328020551） 的 刘小四（00000） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-09-29 17:04:09', 'ftime': '2018-09-29 17:04:09', 'context': '订单已由邻居代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-09-29 11:32:28', 'ftime': '2018-09-29 11:32:28', 'context': '配送员开始配送，请您准备收货，配送员，翟全利，手机号，15375079289', 'location': None}, {'time': '2018-09-29 11:19:26', 'ftime': '2018-09-29 11:19:26', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-09-29 11:19:25', 'ftime': '2018-09-29 11:19:25', 'context': '货物已到达【宿州砀山站】', 'location': None}, {'time': '2018-09-29 00:47:03', 'ftime': '2018-09-29 00:47:03', 'context': '货物已完成分拣，离开【宿迁分拨中心】', 'location': None}, {'time': '2018-09-29 00:43:49', 'ftime': '2018-09-29 00:43:49', 'context': '货物已到达【宿迁分拨中心】', 'location': None}, {'time': '2018-09-29 00:43:48', 'ftime': '2018-09-29 00:43:48', 'context': '货物已到达【宿迁分拨中心】', 'location': None}, {'time': '2018-09-28 10:29:06', 'ftime': '2018-09-28 10:29:06', 'context': '货物已完成分拣，离开【昆山千灯亚一分拣中心】', 'location': None}, {'time': '2018-09-28 10:28:06', 'ftime': '2018-09-28 10:28:06', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-09-28 10:28:06', 'ftime': '2018-09-28 10:28:06', 'context': '货物已到达【昆山千灯亚一分拣中心】', 'location': None}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.072992</v>
+        <v>0.072383</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.008732999999999999</v>
+        <v>0.010033</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 20:12:00', 'ftime': '2019-09-28 20:12:00', 'context': '已签收,签收人是（139****1604）先生/女士，风里来，雨里去，汗也撒泪也流，申通小哥一刻不停留。不求服务惊天下，但求好评动我心，给个好评呗！！如有疑问请联系派件员金山路区域(13774592003,023-62832622)，感谢使用申通快递，期待再次为您服务', 'location': ''}, {'time': '2019-09-28 16:36:42', 'ftime': '2019-09-28 16:36:42', 'context': '快件派送至快递柜【秀苑大厦1单元大门旁丰巢智能柜】，派件员:金山路区域(13774592003,023-62832622)', 'location': ''}, {'time': '2019-09-28 15:06:34', 'ftime': '2019-09-28 15:06:34', 'context': '重庆南坪公司-金山路区域(13774592003,023-62832622)-派件中', 'location': ''}, {'time': '2019-09-28 14:21:34', 'ftime': '2019-09-28 14:21:34', 'context': '已到达-重庆南坪公司', 'location': ''}, {'time': '2019-09-28 13:41:58', 'ftime': '2019-09-28 13:41:58', 'context': '已到达-重庆南坪公司', 'location': ''}, {'time': '2019-09-28 11:23:34', 'ftime': '2019-09-28 11:23:34', 'context': '重庆转运中心-已发往-重庆南坪公司', 'location': ''}, {'time': '2019-09-28 11:06:51', 'ftime': '2019-09-28 11:06:51', 'context': '已到达-重庆转运中心', 'location': ''}, {'time': '2019-09-25 21:14:58', 'ftime': '2019-09-25 21:14:58', 'context': '浙江嘉兴转运中心-已装袋发往-重庆转运中心', 'location': ''}, {'time': '2019-09-25 21:14:58', 'ftime': '2019-09-25 21:14:58', 'context': '浙江嘉兴转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-25 20:57:16', 'ftime': '2019-09-25 20:57:16', 'context': '已到达-浙江嘉兴转运中心', 'location': ''}, {'time': '2019-09-25 20:01:36', 'ftime': '2019-09-25 20:01:36', 'context': '浙江桐乡公司-已装袋发往-浙江嘉兴转运中心', 'location': ''}, {'time': '2019-09-25 20:01:36', 'ftime': '2019-09-25 20:01:36', 'context': '浙江桐乡公司-已进行装车扫描', 'location': ''}, {'time': '2019-09-25 19:14:49', 'ftime': '2019-09-25 19:14:49', 'context': '浙江桐乡公司-已发往-浙江嘉兴转运中心', 'location': ''}, {'time': '2019-09-25 19:14:49', 'ftime': '2019-09-25 19:14:49', 'context': '浙江桐乡公司-已进行装袋扫描', 'location': ''}, {'time': '2019-09-25 19:09:19', 'ftime': '2019-09-25 19:09:19', 'context': '浙江桐乡公司-浙江桐乡公司-已收件', 'location': ''}, {'time': '2019-09-25 17:39:30', 'ftime': '2019-09-25 17:39:30', 'context': '浙江桐乡公司-濮院杨松等(17769629202,0573-88931111)-已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 17:41:58', 'ftime': '2019-09-28 17:41:58', 'context': '[新疆新源县塔勒德]在 伊犁哈萨克自治州 已签收,本人签收 :本人签收,投递员:沈园,电话:17799396659', 'location': '新疆新源县塔勒德'}, {'time': '2019-09-28 17:37:24', 'ftime': '2019-09-28 17:37:24', 'context': '伊犁哈萨克自治州 【新疆新源县塔勒德】投递结果反馈-未妥投,备注(收件人要求延迟投递:2019-09-29),投递员:沈园,电话:17799396659', 'location': '新疆新源县塔勒德'}, {'time': '2019-09-28 13:21:00', 'ftime': '2019-09-28 13:21:00', 'context': '【新疆新源县塔勒德】安排投递,投递员:沈园,电话:17799396659', 'location': '新疆新源县塔勒德'}, {'time': '2019-09-28 13:03:56', 'ftime': '2019-09-28 13:03:56', 'context': '到达【新疆新源县塔勒德】', 'location': '新疆新源县塔勒德'}, {'time': '2019-09-28 07:55:30', 'ftime': '2019-09-28 07:55:30', 'context': '离开【伊宁邮件处理中心】,下一站【新疆新源县塔勒德】', 'location': '伊宁邮件处理中心'}, {'time': '2019-09-27 12:54:52', 'ftime': '2019-09-27 12:54:52', 'context': '到达【伊宁邮件处理中心】', 'location': '伊宁邮件处理中心'}, {'time': '2019-09-26 23:12:40', 'ftime': '2019-09-26 23:12:40', 'context': '离开【维吾尔自治区乌鲁木齐封发邮件】,下一站【伊宁邮件处理中心】（经转）', 'location': '维吾尔自治区乌鲁木齐封发邮件'}, {'time': '2019-09-26 19:12:11', 'ftime': '2019-09-26 19:12:11', 'context': '到达【乌鲁木齐处理中心】（经转）', 'location': '乌鲁木齐处理中心'}, {'time': '2019-09-26 08:30:35', 'ftime': '2019-09-26 08:30:35', 'context': '离开【长沙航站】,下一站【乌鲁木齐处理中心】', 'location': '长沙航站'}, {'time': '2019-09-25 20:13:03', 'ftime': '2019-09-25 20:13:03', 'context': '到达【长沙中心】', 'location': '长沙中心'}, {'time': '2019-09-25 17:56:24', 'ftime': '2019-09-25 17:56:24', 'context': '离开【县螺丝塘揽】,下一站【长沙中心】', 'location': '县螺丝塘揽'}, {'time': '2019-09-25 15:13:21', 'ftime': '2019-09-25 15:13:21', 'context': '长沙市 【县螺丝塘揽】已收件,揽投员:曾林军,电话:18975193529', 'location': '县螺丝塘揽'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.072037</v>
+        <v>0.07194</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.007911</v>
+        <v>0.008395</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 23:01:08', 'ftime': '2019-09-28 23:01:08', 'context': '[四川成都国际广场公司]快件已被 大有智慧左测蜂巢柜（拍照） 代签收如有问题请联系袁茂淇【17313104568】。', 'location': None}, {'time': '2019-09-28 18:16:33', 'ftime': '2019-09-28 18:16:33', 'context': '[四川成都国际广场公司]进行派件扫描；派送业务员：袁茂淇；联系电话：17313104568', 'location': None}, {'time': '2019-09-28 16:38:33', 'ftime': '2019-09-28 16:38:33', 'context': '[四川成都国际广场公司]到达目的地网点，快件很快进行派送', 'location': None}, {'time': '2019-09-28 12:48:47', 'ftime': '2019-09-28 12:48:47', 'context': '[四川成都分拨中心]从站点发出，本次转运目的地：四川成都国际广场公司', 'location': None}, {'time': '2019-09-28 12:43:24', 'ftime': '2019-09-28 12:43:24', 'context': '[四川成都分拨中心]在分拨中心进行卸车扫描', 'location': None}, {'time': '2019-09-27 21:09:05', 'ftime': '2019-09-27 21:09:05', 'context': '[陕西西安分拨中心]进行装车扫描，发往：四川成都分拨中心', 'location': None}, {'time': '2019-09-27 21:05:03', 'ftime': '2019-09-27 21:05:03', 'context': '[陕西西安分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-09-27 17:06:26', 'ftime': '2019-09-27 17:06:26', 'context': '[陕西武功县公司]进行揽件扫描', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 20:37:25', 'ftime': '2019-09-28 20:37:25', 'context': '[浙江杭州分拨中心]进行装车扫描，发往：陕西西安分拨中心', 'location': '浙江杭州分拨中心'}, {'time': '2019-09-28 20:34:25', 'ftime': '2019-09-28 20:34:25', 'context': '[浙江杭州分拨中心]在分拨中心进行称重扫描', 'location': '浙江杭州分拨中心'}, {'time': '2019-09-28 14:39:00', 'ftime': '2019-09-28 14:39:00', 'context': '[浙江杭州萧山区萧滨公司]进行下级地点扫描，发往：陕西西安分拨中心', 'location': '浙江杭州萧山区萧滨公司'}, {'time': '2019-09-28 14:27:18', 'ftime': '2019-09-28 14:27:18', 'context': '[浙江杭州萧山区萧滨公司]进行揽件扫描', 'location': '浙江杭州萧山区萧滨公司'}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.076486</v>
+        <v>0.07549500000000001</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1564,11 +1564,11 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.010374</v>
+        <v>0.009240999999999999</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (8).xlsx
+++ b/data_excel/接口测试用例_ (8).xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="4">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -40,34 +40,6 @@
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -127,10 +99,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -138,6 +110,20 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -486,10 +472,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -501,8 +487,9 @@
     <col width="22.5" customWidth="1" style="2" min="5" max="5"/>
     <col width="32.25" customWidth="1" style="2" min="6" max="6"/>
     <col width="19.75" customWidth="1" style="2" min="7" max="7"/>
-    <col width="28.75" customWidth="1" style="2" min="8" max="8"/>
-    <col width="14.375" customWidth="1" style="4" min="9" max="11"/>
+    <col width="11.5" customWidth="1" style="2" min="8" max="8"/>
+    <col width="28.75" customWidth="1" style="2" min="9" max="9"/>
+    <col width="14.375" customWidth="1" style="4" min="10" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1" s="2">
@@ -543,20 +530,25 @@
       </c>
       <c r="H1" s="8" t="inlineStr">
         <is>
+          <t>用例级别</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
           <t>响应报文</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="J1" s="9" t="inlineStr">
         <is>
           <t>响应时间</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="K1" s="9" t="inlineStr">
         <is>
           <t>状态码</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="L1" s="9" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
@@ -608,18 +600,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-27 17:06:46', 'ftime': '2019-09-27 17:06:46', 'context': '[台州市]台州市【黄岩二部】，已送达，查件请电联15057624332请不要打总部电话，我会第一时间为您处理 已签收', 'location': '台州市'}, {'time': '2019-09-27 12:59:54', 'ftime': '2019-09-27 12:59:54', 'context': '[台州市]台州市【黄岩二部】，【张露/15057624332】正在派件', 'location': '台州市'}, {'time': '2019-09-27 08:15:43', 'ftime': '2019-09-27 08:15:43', 'context': '[台州市]到台州市【黄岩二部】', 'location': '台州市'}, {'time': '2019-09-27 03:38:50', 'ftime': '2019-09-27 03:38:50', 'context': '[台州市]台州市【台州转运中心】，正发往【黄岩二部】', 'location': '台州市'}, {'time': '2019-09-27 03:30:56', 'ftime': '2019-09-27 03:30:56', 'context': '[台州市]到台州市【台州转运中心】', 'location': '台州市'}, {'time': '2019-09-26 10:03:26', 'ftime': '2019-09-26 10:03:26', 'context': '[金华市]金华市【金华转运中心】，正发往【台州转运中心】', 'location': '金华市'}, {'time': '2019-09-26 10:00:53', 'ftime': '2019-09-26 10:00:53', 'context': '[金华市]到金华市【金华转运中心】', 'location': '金华市'}, {'time': '2019-09-25 18:49:16', 'ftime': '2019-09-25 18:49:16', 'context': '[临沂市]临沂市【临沂转运中心】，正发往【金华转运中心】', 'location': '临沂市'}, {'time': '2019-09-25 18:47:56', 'ftime': '2019-09-25 18:47:56', 'context': '[临沂市]到临沂市【临沂转运中心】', 'location': '临沂市'}, {'time': '2019-09-25 15:47:09', 'ftime': '2019-09-25 15:47:09', 'context': '[临沂市]临沂市【沂南】，【刘爱琴/15168923128】已揽收', 'location': '临沂市'}]}</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0.07111199999999999</v>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 06:18:05', 'ftime': '2019-10-08 06:18:05', 'context': '证件已匹配，包裹继续中转', 'location': None}, {'time': '2019-10-08 06:16:52', 'ftime': '2019-10-08 06:16:52', 'context': '[旧金山]营业点已收货，等待司机取货', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J2" s="3" t="n">
+        <v>0.08325200000000001</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -669,22 +666,15 @@
       <c r="G3" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0.035807</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
     </row>
     <row r="4" ht="39.95" customHeight="1" s="2">
       <c r="A4" s="3" t="n">
@@ -723,18 +713,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 09:52:11', 'ftime': '2019-09-28 09:52:11', 'context': '[苏州市石路揽投部]在 苏州市 已签收,他人代收：孙,投递员:张海军,电话:18962162792', 'location': '苏州市石路揽投部'}, {'time': '2019-09-28 07:46:27', 'ftime': '2019-09-28 07:46:27', 'context': '【苏州市石路揽投部】安排投递,投递员:张海军,电话:18962162792', 'location': '苏州市石路揽投部'}, {'time': '2019-09-28 07:26:34', 'ftime': '2019-09-28 07:26:34', 'context': '到达【苏州市石路揽投部】', 'location': '苏州市石路揽投部'}, {'time': '2019-09-28 06:02:45', 'ftime': '2019-09-28 06:02:45', 'context': '离开【邮政苏州市邮件处理分局】,下一站【苏州市石路揽投部】', 'location': '邮政苏州市邮件处理分局'}, {'time': '2019-09-28 01:00:16', 'ftime': '2019-09-28 01:00:16', 'context': '到达【邮政苏州市邮件处理分局】', 'location': '邮政苏州市邮件处理分局'}, {'time': '2019-09-27 03:52:03', 'ftime': '2019-09-27 03:52:03', 'context': '离开【西安中心】,下一站【邮政苏州市邮件处理分局】（经转）', 'location': '西安中心'}, {'time': '2019-09-26 21:15:03', 'ftime': '2019-09-26 21:15:03', 'context': '到达【西安中心】（经转）', 'location': '西安中心'}, {'time': '2019-09-26 19:53:57', 'ftime': '2019-09-26 19:53:57', 'context': '离开【铜川市本部网路运营中心】,下一站【西安中心】', 'location': '铜川市本部网路运营中心'}, {'time': '2019-09-26 18:37:01', 'ftime': '2019-09-26 18:37:01', 'context': '到达【铜川市本部网路运营中心】', 'location': '铜川市本部网路运营中心'}, {'time': '2019-09-26 17:43:41', 'ftime': '2019-09-26 17:43:41', 'context': '离开【铜川印台】,下一站【铜川中心】', 'location': '铜川印台'}, {'time': '2019-09-26 15:09:38', 'ftime': '2019-09-26 15:09:38', 'context': '铜川市 【铜川印台】已收件,揽投员:罗贵峰,电话:15229198023', 'location': '铜川印台'}]}</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0.06930600000000001</v>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 15:43:37', 'ftime': '2019-10-07 15:43:37', 'context': '【大连市】 快件已经到达 【大连】', 'location': ''}, {'time': '2019-10-06 04:29:15', 'ftime': '2019-10-06 04:29:15', 'context': '【嘉兴市】 快件离开 【杭州中转部】 已发往 【大连】', 'location': ''}, {'time': '2019-10-06 04:28:12', 'ftime': '2019-10-06 04:28:12', 'context': '【嘉兴市】 快件已经到达 【杭州中转部】', 'location': ''}, {'time': '2019-10-05 22:39:36', 'ftime': '2019-10-05 22:39:36', 'context': '【温州市】 快件离开 【温州中转部】 已发往 【杭州中转部】', 'location': ''}, {'time': '2019-10-05 22:38:17', 'ftime': '2019-10-05 22:38:17', 'context': '【温州市】 快件已经到达 【温州中转部】', 'location': ''}, {'time': '2019-10-05 21:03:07', 'ftime': '2019-10-05 21:03:07', 'context': '【温州市】 快件离开 【永嘉瓯北】 已发往 【大连】', 'location': ''}, {'time': '2019-10-05 18:47:19', 'ftime': '2019-10-05 18:47:19', 'context': '【温州市】 【永嘉瓯北】（0577-66995888、0577-67388200） 的 永嘉黄田（18157751501） 已揽收', 'location': ''}]}</t>
+        </is>
       </c>
       <c r="J4" s="3" t="n">
+        <v>0.071959</v>
+      </c>
+      <c r="K4" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -775,22 +770,15 @@
       <c r="G5" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0.009050000000000001</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
     </row>
     <row r="6" ht="39.95" customHeight="1" s="2">
       <c r="A6" s="3" t="n">
@@ -829,18 +817,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-25 15:14:17', 'ftime': '2019-09-25 15:14:17', 'context': '航班已从始发地起飞', 'location': ''}, {'time': '2019-09-25 15:14:07', 'ftime': '2019-09-25 15:14:07', 'context': '出库发运', 'location': ''}, {'time': '2019-09-24 11:07:21', 'ftime': '2019-09-24 11:07:21', 'context': '德国 入库收寄', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>0.102442</v>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-26 16:34:50', 'context': '查无结果', 'ftime': '2019-09-26 16:34:50'}]}</t>
+        </is>
       </c>
       <c r="J6" s="3" t="n">
+        <v>0.062945</v>
+      </c>
+      <c r="K6" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -881,22 +874,15 @@
       <c r="G7" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>0.009348</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
     </row>
     <row r="8" ht="39.95" customHeight="1" s="2">
       <c r="A8" s="3" t="n">
@@ -935,18 +921,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-20 16:10:58', 'context': '查无结果', 'ftime': '2019-09-20 16:10:58'}]}</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>0.065567</v>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-12 16:34:50', 'context': '查无结果', 'ftime': '2019-09-12 16:34:50'}]}</t>
+        </is>
       </c>
       <c r="J8" s="3" t="n">
+        <v>0.068442</v>
+      </c>
+      <c r="K8" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K8" s="3" t="inlineStr">
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -987,22 +978,15 @@
       <c r="G9" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>0.02884</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
     </row>
     <row r="10" ht="39.95" customHeight="1" s="2">
       <c r="A10" s="3" t="n">
@@ -1041,18 +1025,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-06 16:10:58', 'context': '查无结果', 'ftime': '2019-09-06 16:10:58'}]}</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>0.064086</v>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 04:42:42', 'ftime': '2019-10-08 04:42:42', 'context': '【广州市】 快件离开 【广州中心】 已发往 【武汉中转部】', 'location': ''}, {'time': '2019-10-08 04:39:03', 'ftime': '2019-10-08 04:39:03', 'context': '【广州市】 快件已经到达 【广州中心】', 'location': ''}, {'time': '2019-10-08 02:20:18', 'ftime': '2019-10-08 02:20:18', 'context': '【广州市】 快件离开 【广州永福】 已发往 【武汉中转部】', 'location': ''}, {'time': '2019-10-08 02:16:35', 'ftime': '2019-10-08 02:16:35', 'context': '【广州市】 【广州永福】（020-22500630、020-36079893、020-86462062） 的 钟进泉（13928905565） 已揽收', 'location': ''}]}</t>
+        </is>
       </c>
       <c r="J10" s="3" t="n">
+        <v>0.070316</v>
+      </c>
+      <c r="K10" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1093,22 +1082,15 @@
       <c r="G11" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>0.025187</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
     </row>
     <row r="12" ht="39.95" customHeight="1" s="2">
       <c r="A12" s="3" t="n">
@@ -1156,18 +1138,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-18 16:10:58', 'context': '查无结果', 'ftime': '2019-09-18 16:10:58'}]}</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0.067471</v>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-07 21:18:00', 'ftime': '2019-10-07 21:18:00', 'context': '【六盘水市】 快件已在 【盘县双凤镇】 签收, 签收人: 家人, 如有疑问请电联:15519837289 / 0858-3222232, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': None}, {'time': '2019-10-07 12:31:35', 'ftime': '2019-10-07 12:31:35', 'context': '【六盘水市】 【盘县双凤镇】 的陈程（15519837289） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': None}, {'time': '2019-10-07 12:31:34', 'ftime': '2019-10-07 12:31:34', 'context': '【六盘水市】 快件已经到达 【盘县双凤镇】', 'location': None}, {'time': '2019-10-07 08:29:24', 'ftime': '2019-10-07 08:29:24', 'context': '【六盘水市】 快件离开 【盘县】 已发往 【盘县双凤镇】', 'location': None}, {'time': '2019-10-07 08:28:39', 'ftime': '2019-10-07 08:28:39', 'context': '【六盘水市】 快件已经到达 【盘县】', 'location': None}, {'time': '2019-10-06 22:19:13', 'ftime': '2019-10-06 22:19:13', 'context': '【黔南布依族苗族自治州】 快件离开 【贵阳】 已发往 【盘县】', 'location': None}, {'time': '2019-10-06 22:09:51', 'ftime': '2019-10-06 22:09:51', 'context': '【黔南布依族苗族自治州】 快件已经到达 【贵阳】', 'location': None}, {'time': '2019-10-06 00:30:52', 'ftime': '2019-10-06 00:30:52', 'context': '【南昌市】 快件离开 【南昌中转部】 已发往 【贵阳】', 'location': None}, {'time': '2019-10-06 00:29:23', 'ftime': '2019-10-06 00:29:23', 'context': '【南昌市】 快件已经到达 【南昌中转部】', 'location': None}, {'time': '2019-10-05 18:33:41', 'ftime': '2019-10-05 18:33:41', 'context': '【萍乡市】 快件离开 【萍乡】 已发往 【贵阳】', 'location': None}, {'time': '2019-10-05 17:17:54', 'ftime': '2019-10-05 17:17:54', 'context': '【萍乡市】 【萍乡】（0799-6787073、0799-6626033） 的 谭燕（18720847303） 已揽收', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J12" s="3" t="n">
+        <v>0.07094399999999999</v>
+      </c>
+      <c r="K12" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1217,22 +1204,15 @@
       <c r="G13" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>0.052472</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
     </row>
     <row r="14" ht="39.95" customHeight="1" s="2">
       <c r="A14" s="3" t="n">
@@ -1280,18 +1260,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-09-29 17:04:09', 'ftime': '2018-09-29 17:04:09', 'context': '订单已由邻居代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-09-29 11:32:28', 'ftime': '2018-09-29 11:32:28', 'context': '配送员开始配送，请您准备收货，配送员，翟全利，手机号，15375079289', 'location': None}, {'time': '2018-09-29 11:19:26', 'ftime': '2018-09-29 11:19:26', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-09-29 11:19:25', 'ftime': '2018-09-29 11:19:25', 'context': '货物已到达【宿州砀山站】', 'location': None}, {'time': '2018-09-29 00:47:03', 'ftime': '2018-09-29 00:47:03', 'context': '货物已完成分拣，离开【宿迁分拨中心】', 'location': None}, {'time': '2018-09-29 00:43:49', 'ftime': '2018-09-29 00:43:49', 'context': '货物已到达【宿迁分拨中心】', 'location': None}, {'time': '2018-09-29 00:43:48', 'ftime': '2018-09-29 00:43:48', 'context': '货物已到达【宿迁分拨中心】', 'location': None}, {'time': '2018-09-28 10:29:06', 'ftime': '2018-09-28 10:29:06', 'context': '货物已完成分拣，离开【昆山千灯亚一分拣中心】', 'location': None}, {'time': '2018-09-28 10:28:06', 'ftime': '2018-09-28 10:28:06', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-09-28 10:28:06', 'ftime': '2018-09-28 10:28:06', 'context': '货物已到达【昆山千灯亚一分拣中心】', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>0.072383</v>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 16:34:50', 'context': '查无结果', 'ftime': '2019-09-10 16:34:50'}]}</t>
+        </is>
       </c>
       <c r="J14" s="3" t="n">
+        <v>0.065715</v>
+      </c>
+      <c r="K14" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1332,22 +1317,15 @@
       <c r="G15" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>0.010033</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
     </row>
     <row r="16" ht="39.95" customHeight="1" s="2">
       <c r="A16" s="3" t="n">
@@ -1386,18 +1364,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 17:41:58', 'ftime': '2019-09-28 17:41:58', 'context': '[新疆新源县塔勒德]在 伊犁哈萨克自治州 已签收,本人签收 :本人签收,投递员:沈园,电话:17799396659', 'location': '新疆新源县塔勒德'}, {'time': '2019-09-28 17:37:24', 'ftime': '2019-09-28 17:37:24', 'context': '伊犁哈萨克自治州 【新疆新源县塔勒德】投递结果反馈-未妥投,备注(收件人要求延迟投递:2019-09-29),投递员:沈园,电话:17799396659', 'location': '新疆新源县塔勒德'}, {'time': '2019-09-28 13:21:00', 'ftime': '2019-09-28 13:21:00', 'context': '【新疆新源县塔勒德】安排投递,投递员:沈园,电话:17799396659', 'location': '新疆新源县塔勒德'}, {'time': '2019-09-28 13:03:56', 'ftime': '2019-09-28 13:03:56', 'context': '到达【新疆新源县塔勒德】', 'location': '新疆新源县塔勒德'}, {'time': '2019-09-28 07:55:30', 'ftime': '2019-09-28 07:55:30', 'context': '离开【伊宁邮件处理中心】,下一站【新疆新源县塔勒德】', 'location': '伊宁邮件处理中心'}, {'time': '2019-09-27 12:54:52', 'ftime': '2019-09-27 12:54:52', 'context': '到达【伊宁邮件处理中心】', 'location': '伊宁邮件处理中心'}, {'time': '2019-09-26 23:12:40', 'ftime': '2019-09-26 23:12:40', 'context': '离开【维吾尔自治区乌鲁木齐封发邮件】,下一站【伊宁邮件处理中心】（经转）', 'location': '维吾尔自治区乌鲁木齐封发邮件'}, {'time': '2019-09-26 19:12:11', 'ftime': '2019-09-26 19:12:11', 'context': '到达【乌鲁木齐处理中心】（经转）', 'location': '乌鲁木齐处理中心'}, {'time': '2019-09-26 08:30:35', 'ftime': '2019-09-26 08:30:35', 'context': '离开【长沙航站】,下一站【乌鲁木齐处理中心】', 'location': '长沙航站'}, {'time': '2019-09-25 20:13:03', 'ftime': '2019-09-25 20:13:03', 'context': '到达【长沙中心】', 'location': '长沙中心'}, {'time': '2019-09-25 17:56:24', 'ftime': '2019-09-25 17:56:24', 'context': '离开【县螺丝塘揽】,下一站【长沙中心】', 'location': '县螺丝塘揽'}, {'time': '2019-09-25 15:13:21', 'ftime': '2019-09-25 15:13:21', 'context': '长沙市 【县螺丝塘揽】已收件,揽投员:曾林军,电话:18975193529', 'location': '县螺丝塘揽'}]}</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>0.07194</v>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 03:55:59', 'ftime': '2019-10-08 03:55:59', 'context': '[郑州市]郑州市【郑州转运中心】，正发往【上海转运中心】', 'location': '郑州市'}, {'time': '2019-10-08 03:52:47', 'ftime': '2019-10-08 03:52:47', 'context': '[郑州市]到郑州市【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-10-07 17:14:51', 'ftime': '2019-10-07 17:14:51', 'context': '[郑州市]郑州市【郑州中原区二部】，正发往【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-10-07 17:14:28', 'ftime': '2019-10-07 17:14:28', 'context': '[郑州市]郑州市【郑州中原区二部】，正发往【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-10-07 16:05:32', 'ftime': '2019-10-07 16:05:32', 'context': '[郑州市]派件员正在处理中，如有问题请联系物流客服', 'location': '郑州市'}, {'time': '2019-10-06 14:17:37', 'ftime': '2019-10-06 14:17:37', 'context': '[郑州市]快件已暂存至郑州升龙天汇三号院2号楼17店菜鸟驿站，如有疑问请联系17719876170', 'location': '郑州市'}, {'time': '2019-10-06 12:42:46', 'ftime': '2019-10-06 12:42:46', 'context': '[郑州市]郑州市【郑州中原区二部】，【谢中巍/13838090302】正在派件', 'location': '郑州市'}, {'time': '2019-10-06 12:41:46', 'ftime': '2019-10-06 12:41:46', 'context': '[郑州市]到郑州市【郑州中原区二部】', 'location': '郑州市'}, {'time': '2019-10-05 17:19:02', 'ftime': '2019-10-05 17:19:02', 'context': '[郑州市]郑州市【郑州转运中心】，正发往【郑州中原区二部】', 'location': '郑州市'}, {'time': '2019-10-05 11:27:57', 'ftime': '2019-10-05 11:27:57', 'context': '[郑州市]到郑州市【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-10-05 08:43:52', 'ftime': '2019-10-05 08:43:52', 'context': '[郑州市]郑州市【南区三部】，正发往【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-10-05 04:16:21', 'ftime': '2019-10-05 04:16:21', 'context': '[郑州市]郑州市【郑州转运中心】，正发往【南区三部】', 'location': '郑州市'}, {'time': '2019-10-04 10:35:51', 'ftime': '2019-10-04 10:35:51', 'context': '[郑州市]郑州市【南区三部】，正发往【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-10-04 03:31:11', 'ftime': '2019-10-04 03:31:11', 'context': '[郑州市]郑州市【郑州转运中心】，正发往【南区三部】', 'location': '郑州市'}, {'time': '2019-10-04 03:12:44', 'ftime': '2019-10-04 03:12:44', 'context': '[郑州市]到郑州市【郑州天明路分部集货点】', 'location': '郑州市'}, {'time': '2019-10-04 02:51:31', 'ftime': '2019-10-04 02:51:31', 'context': '[郑州市]到郑州市【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-10-03 11:15:31', 'ftime': '2019-10-03 11:15:31', 'context': '[郑州市]郑州市【南区三部】，正发往【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-10-03 01:52:18', 'ftime': '2019-10-03 01:52:18', 'context': '[郑州市]郑州市【郑州转运中心】，正发往【南区三部】', 'location': '郑州市'}, {'time': '2019-10-03 01:32:37', 'ftime': '2019-10-03 01:32:37', 'context': '[郑州市]到郑州市【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-10-02 10:50:05', 'ftime': '2019-10-02 10:50:05', 'context': '[郑州市]郑州市【南区三部】，正发往【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-10-02 06:30:56', 'ftime': '2019-10-02 06:30:56', 'context': '[郑州市]郑州市【郑州转运中心】，正发往【南区三部】', 'location': '郑州市'}, {'time': '2019-10-02 05:44:54', 'ftime': '2019-10-02 05:44:54', 'context': '[郑州市]到郑州市【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-09-30 23:16:52', 'ftime': '2019-09-30 23:16:52', 'context': '[上海市]上海市【上海转运中心】，正发往【郑州转运中心】', 'location': '上海市'}, {'time': '2019-09-29 23:57:41', 'ftime': '2019-09-29 23:57:41', 'context': '[上海市]上海市【上海转运中心】，正发往【郑州转运中心】', 'location': '上海市'}, {'time': '2019-09-29 23:54:11', 'ftime': '2019-09-29 23:54:11', 'context': '[上海市]到上海市【上海转运中心】', 'location': '上海市'}, {'time': '2019-09-29 16:13:16', 'ftime': '2019-09-29 16:13:16', 'context': '[上海市]上海市【上海闵开西部】，【云虹/18117300373】已揽收', 'location': '上海市'}]}</t>
+        </is>
       </c>
       <c r="J16" s="3" t="n">
+        <v>0.07538300000000001</v>
+      </c>
+      <c r="K16" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K16" s="3" t="inlineStr">
+      <c r="L16" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1438,22 +1421,15 @@
       <c r="G17" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>0.008395</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
     </row>
     <row r="18" ht="39.95" customHeight="1" s="2">
       <c r="A18" s="3" t="n">
@@ -1501,18 +1477,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 20:37:25', 'ftime': '2019-09-28 20:37:25', 'context': '[浙江杭州分拨中心]进行装车扫描，发往：陕西西安分拨中心', 'location': '浙江杭州分拨中心'}, {'time': '2019-09-28 20:34:25', 'ftime': '2019-09-28 20:34:25', 'context': '[浙江杭州分拨中心]在分拨中心进行称重扫描', 'location': '浙江杭州分拨中心'}, {'time': '2019-09-28 14:39:00', 'ftime': '2019-09-28 14:39:00', 'context': '[浙江杭州萧山区萧滨公司]进行下级地点扫描，发往：陕西西安分拨中心', 'location': '浙江杭州萧山区萧滨公司'}, {'time': '2019-09-28 14:27:18', 'ftime': '2019-09-28 14:27:18', 'context': '[浙江杭州萧山区萧滨公司]进行揽件扫描', 'location': '浙江杭州萧山区萧滨公司'}]}</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>0.07549500000000001</v>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 10:34:56', 'ftime': '2019-10-08 10:34:56', 'context': '[北京西城区平安里公司]快件已被 102小屋 代签收如有问题请联系李仑红【18513020231】。', 'location': None}, {'time': '2019-10-08 07:22:43', 'ftime': '2019-10-08 07:22:43', 'context': '[北京西城区平安里公司]进行派件扫描；派送业务员：李仑红；联系电话：18513020231', 'location': None}, {'time': '2019-10-07 22:18:52', 'ftime': '2019-10-07 22:18:52', 'context': '[北京分拨中心]从站点发出，本次转运目的地：北京西城区平安里公司', 'location': None}, {'time': '2019-10-07 22:03:55', 'ftime': '2019-10-07 22:03:55', 'context': '[北京分拨中心]在分拨中心进行卸车扫描', 'location': None}, {'time': '2019-10-06 23:35:57', 'ftime': '2019-10-06 23:35:57', 'context': '[黑龙江哈尔滨分拨中心]进行装车扫描，发往：北京分拨中心', 'location': None}, {'time': '2019-10-06 23:06:09', 'ftime': '2019-10-06 23:06:09', 'context': '[黑龙江哈尔滨分拨中心]进行中转集包扫描，发往：京西市内包', 'location': None}, {'time': '2019-10-06 22:47:17', 'ftime': '2019-10-06 22:47:17', 'context': '[黑龙江哈尔滨分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-10-06 12:33:38', 'ftime': '2019-10-06 12:33:38', 'context': '[黑龙江哈尔滨香坊区西大直公司]进行揽件扫描', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J18" s="3" t="n">
+        <v>0.07473299999999999</v>
+      </c>
+      <c r="K18" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K18" s="3" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1562,26 +1543,32 @@
       <c r="G19" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>0.009240999999999999</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
     </row>
     <row r="20" ht="39.95" customHeight="1" s="2"/>
     <row r="21" ht="39.95" customHeight="1" s="2"/>
   </sheetData>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1">
+      <formula>"K"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+      <formula>"M"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation sqref="H2:H19" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"K,M"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId2"/>

--- a/data_excel/接口测试用例_ (8).xlsx
+++ b/data_excel/接口测试用例_ (8).xlsx
@@ -607,11 +607,11 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 06:18:05', 'ftime': '2019-10-08 06:18:05', 'context': '证件已匹配，包裹继续中转', 'location': None}, {'time': '2019-10-08 06:16:52', 'ftime': '2019-10-08 06:16:52', 'context': '[旧金山]营业点已收货，等待司机取货', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-08 16:54:54', 'context': '查无结果', 'ftime': '2019-10-08 16:54:54'}]}</t>
         </is>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.08325200000000001</v>
+        <v>0.063733</v>
       </c>
       <c r="K2" s="3" t="n">
         <v>200</v>
@@ -720,11 +720,11 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 15:43:37', 'ftime': '2019-10-07 15:43:37', 'context': '【大连市】 快件已经到达 【大连】', 'location': ''}, {'time': '2019-10-06 04:29:15', 'ftime': '2019-10-06 04:29:15', 'context': '【嘉兴市】 快件离开 【杭州中转部】 已发往 【大连】', 'location': ''}, {'time': '2019-10-06 04:28:12', 'ftime': '2019-10-06 04:28:12', 'context': '【嘉兴市】 快件已经到达 【杭州中转部】', 'location': ''}, {'time': '2019-10-05 22:39:36', 'ftime': '2019-10-05 22:39:36', 'context': '【温州市】 快件离开 【温州中转部】 已发往 【杭州中转部】', 'location': ''}, {'time': '2019-10-05 22:38:17', 'ftime': '2019-10-05 22:38:17', 'context': '【温州市】 快件已经到达 【温州中转部】', 'location': ''}, {'time': '2019-10-05 21:03:07', 'ftime': '2019-10-05 21:03:07', 'context': '【温州市】 快件离开 【永嘉瓯北】 已发往 【大连】', 'location': ''}, {'time': '2019-10-05 18:47:19', 'ftime': '2019-10-05 18:47:19', 'context': '【温州市】 【永嘉瓯北】（0577-66995888、0577-67388200） 的 永嘉黄田（18157751501） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 06:26:52', 'ftime': '2019-10-08 06:26:52', 'context': '【重庆市】 快件离开 【重庆】 已发往 【重庆巫溪】', 'location': None}, {'time': '2019-10-08 06:01:26', 'ftime': '2019-10-08 06:01:26', 'context': '【重庆市】 快件已经到达 【重庆】', 'location': None}, {'time': '2019-10-06 21:34:26', 'ftime': '2019-10-06 21:34:26', 'context': '【无锡市】 快件离开 【无锡中转部】 已发往 【重庆】', 'location': None}, {'time': '2019-10-06 21:32:45', 'ftime': '2019-10-06 21:32:45', 'context': '【无锡市】 快件已经到达 【无锡中转部】', 'location': None}, {'time': '2019-10-06 20:02:47', 'ftime': '2019-10-06 20:02:47', 'context': '【无锡市】 快件离开 【无锡南泉二部】 已发往 【重庆】', 'location': None}, {'time': '2019-10-06 18:30:33', 'ftime': '2019-10-06 18:30:33', 'context': '【无锡市】 【无锡南泉镇】（0510-82858657） 的 小浦（15706187750） 已揽收', 'location': None}]}</t>
         </is>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.071959</v>
+        <v>0.075824</v>
       </c>
       <c r="K4" s="3" t="n">
         <v>200</v>
@@ -824,11 +824,11 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-26 16:34:50', 'context': '查无结果', 'ftime': '2019-09-26 16:34:50'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 20:21:05', 'ftime': '2019-10-07 20:21:05', 'context': '河北石家庄转运中心-已装袋发往-安徽合肥转运中心', 'location': None}, {'time': '2019-10-07 20:21:05', 'ftime': '2019-10-07 20:21:05', 'context': '河北石家庄转运中心-已进行装车扫描', 'location': None}, {'time': '2019-10-07 19:05:59', 'ftime': '2019-10-07 19:05:59', 'context': '已到达-河北石家庄转运中心', 'location': None}, {'time': '2019-10-07 19:05:59', 'ftime': '2019-10-07 19:05:59', 'context': '快件已在【河北石家庄转运中心】进行卸车，扫描员【五连扫3】', 'location': None}, {'time': '2019-10-07 02:17:55', 'ftime': '2019-10-07 02:17:55', 'context': '辽宁沈阳转运中心-已装袋发往-河北石家庄转运中心', 'location': None}, {'time': '2019-10-07 02:17:55', 'ftime': '2019-10-07 02:17:55', 'context': '辽宁沈阳转运中心-已进行装车扫描', 'location': None}, {'time': '2019-10-07 02:14:16', 'ftime': '2019-10-07 02:14:16', 'context': '辽宁沈阳转运中心-已发往-辽宁盘锦转运中心', 'location': None}, {'time': '2019-10-07 02:14:16', 'ftime': '2019-10-07 02:14:16', 'context': '辽宁沈阳转运中心-已进行装袋扫描', 'location': None}, {'time': '2019-10-07 02:13:29', 'ftime': '2019-10-07 02:13:29', 'context': '辽宁沈阳转运中心-已发往-辽宁盘锦转运中心', 'location': None}, {'time': '2019-10-07 02:13:29', 'ftime': '2019-10-07 02:13:29', 'context': '辽宁沈阳转运中心-已装袋发往-辽宁盘锦转运中心', 'location': None}, {'time': '2019-10-06 19:34:21', 'ftime': '2019-10-06 19:34:21', 'context': '已到达-辽宁沈阳转运中心', 'location': None}, {'time': '2019-10-06 14:59:39', 'ftime': '2019-10-06 14:59:39', 'context': '辽宁沈阳和平砂山分部-已发往-辽宁沈阳转运中心', 'location': None}, {'time': '2019-10-06 13:09:38', 'ftime': '2019-10-06 13:09:38', 'context': '辽宁沈阳和平砂山分部-维斯户外a-已收件', 'location': None}]}</t>
         </is>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0.062945</v>
+        <v>0.07033200000000001</v>
       </c>
       <c r="K6" s="3" t="n">
         <v>200</v>
@@ -928,11 +928,11 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-12 16:34:50', 'context': '查无结果', 'ftime': '2019-09-12 16:34:50'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-10-08 07:49:24', 'ftime': '2019-10-08 07:49:24', 'context': '黑龙江黑河赵光营业部-王喜民(13846306878,0456-6606878)-派件中', 'location': ''}, {'time': '2019-10-08 07:44:27', 'ftime': '2019-10-08 07:44:27', 'context': '已到达-黑龙江黑河赵光营业部', 'location': ''}, {'time': '2019-10-07 05:04:23', 'ftime': '2019-10-07 05:04:23', 'context': '黑龙江哈尔滨转运中心-已发往-黑龙江黑河公司', 'location': ''}, {'time': '2019-10-07 04:54:20', 'ftime': '2019-10-07 04:54:20', 'context': '已到达-黑龙江哈尔滨转运中心', 'location': ''}, {'time': '2019-10-04 17:49:52', 'ftime': '2019-10-04 17:49:52', 'context': '浙江义乌公司-已发往-黑龙江哈尔滨转运中心', 'location': ''}, {'time': '2019-10-04 17:49:52', 'ftime': '2019-10-04 17:49:52', 'context': '浙江义乌公司-已进行装袋扫描', 'location': ''}, {'time': '2019-10-04 17:22:51', 'ftime': '2019-10-04 17:22:51', 'context': '浙江义乌公司-丰巢2(0579-85456666)-已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J8" s="3" t="n">
-        <v>0.068442</v>
+        <v>0.069926</v>
       </c>
       <c r="K8" s="3" t="n">
         <v>200</v>
@@ -1032,11 +1032,11 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 04:42:42', 'ftime': '2019-10-08 04:42:42', 'context': '【广州市】 快件离开 【广州中心】 已发往 【武汉中转部】', 'location': ''}, {'time': '2019-10-08 04:39:03', 'ftime': '2019-10-08 04:39:03', 'context': '【广州市】 快件已经到达 【广州中心】', 'location': ''}, {'time': '2019-10-08 02:20:18', 'ftime': '2019-10-08 02:20:18', 'context': '【广州市】 快件离开 【广州永福】 已发往 【武汉中转部】', 'location': ''}, {'time': '2019-10-08 02:16:35', 'ftime': '2019-10-08 02:16:35', 'context': '【广州市】 【广州永福】（020-22500630、020-36079893、020-86462062） 的 钟进泉（13928905565） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 08:51:59', 'ftime': '2019-10-08 08:51:59', 'context': '[广东东莞大朗公司]快件已被 本人 签收', 'location': None}, {'time': '2019-10-08 08:05:42', 'ftime': '2019-10-08 08:05:42', 'context': '[广东东莞大朗公司]进行派件扫描；派送业务员：苏日强；联系电话：18028208642', 'location': None}, {'time': '2019-10-08 07:12:52', 'ftime': '2019-10-08 07:12:52', 'context': '[广东东莞大朗公司]到达目的地网点，快件很快进行派送', 'location': None}, {'time': '2019-10-08 02:17:41', 'ftime': '2019-10-08 02:17:41', 'context': '[广东东莞分拨中心]从站点发出，本次转运目的地：广东东莞大朗公司', 'location': None}, {'time': '2019-10-08 00:53:32', 'ftime': '2019-10-08 00:53:32', 'context': '[广东东莞分拨中心]在分拨中心进行卸车扫描', 'location': None}, {'time': '2019-10-06 22:47:47', 'ftime': '2019-10-06 22:47:47', 'context': '[云南昆明分拨中心]进行装车扫描，发往：广东东莞分拨中心', 'location': None}, {'time': '2019-10-06 22:37:23', 'ftime': '2019-10-06 22:37:23', 'context': '[云南昆明分拨中心]进行中转集包扫描，发往：广东东莞网点包', 'location': None}, {'time': '2019-10-06 22:33:36', 'ftime': '2019-10-06 22:33:36', 'context': '[云南昆明分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-10-06 17:35:13', 'ftime': '2019-10-06 17:35:13', 'context': '[云南石林县公司]进行发出扫描，发往：云南昆明分拨中心', 'location': None}, {'time': '2019-10-06 17:21:27', 'ftime': '2019-10-06 17:21:27', 'context': '[云南石林县公司]进行揽件扫描', 'location': None}]}</t>
         </is>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.070316</v>
+        <v>0.073186</v>
       </c>
       <c r="K10" s="3" t="n">
         <v>200</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-07 21:18:00', 'ftime': '2019-10-07 21:18:00', 'context': '【六盘水市】 快件已在 【盘县双凤镇】 签收, 签收人: 家人, 如有疑问请电联:15519837289 / 0858-3222232, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': None}, {'time': '2019-10-07 12:31:35', 'ftime': '2019-10-07 12:31:35', 'context': '【六盘水市】 【盘县双凤镇】 的陈程（15519837289） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': None}, {'time': '2019-10-07 12:31:34', 'ftime': '2019-10-07 12:31:34', 'context': '【六盘水市】 快件已经到达 【盘县双凤镇】', 'location': None}, {'time': '2019-10-07 08:29:24', 'ftime': '2019-10-07 08:29:24', 'context': '【六盘水市】 快件离开 【盘县】 已发往 【盘县双凤镇】', 'location': None}, {'time': '2019-10-07 08:28:39', 'ftime': '2019-10-07 08:28:39', 'context': '【六盘水市】 快件已经到达 【盘县】', 'location': None}, {'time': '2019-10-06 22:19:13', 'ftime': '2019-10-06 22:19:13', 'context': '【黔南布依族苗族自治州】 快件离开 【贵阳】 已发往 【盘县】', 'location': None}, {'time': '2019-10-06 22:09:51', 'ftime': '2019-10-06 22:09:51', 'context': '【黔南布依族苗族自治州】 快件已经到达 【贵阳】', 'location': None}, {'time': '2019-10-06 00:30:52', 'ftime': '2019-10-06 00:30:52', 'context': '【南昌市】 快件离开 【南昌中转部】 已发往 【贵阳】', 'location': None}, {'time': '2019-10-06 00:29:23', 'ftime': '2019-10-06 00:29:23', 'context': '【南昌市】 快件已经到达 【南昌中转部】', 'location': None}, {'time': '2019-10-05 18:33:41', 'ftime': '2019-10-05 18:33:41', 'context': '【萍乡市】 快件离开 【萍乡】 已发往 【贵阳】', 'location': None}, {'time': '2019-10-05 17:17:54', 'ftime': '2019-10-05 17:17:54', 'context': '【萍乡市】 【萍乡】（0799-6787073、0799-6626033） 的 谭燕（18720847303） 已揽收', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-03 16:54:55', 'context': '查无结果', 'ftime': '2019-10-03 16:54:55'}]}</t>
         </is>
       </c>
       <c r="J12" s="3" t="n">
-        <v>0.07094399999999999</v>
+        <v>0.067261</v>
       </c>
       <c r="K12" s="3" t="n">
         <v>200</v>
@@ -1267,11 +1267,11 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 16:34:50', 'context': '查无结果', 'ftime': '2019-09-10 16:34:50'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 00:12:24', 'ftime': '2019-10-08 00:12:24', 'context': '货物已完成分拣，离开【青岛亚一分拨中心】', 'location': ''}, {'time': '2019-10-07 18:59:18', 'ftime': '2019-10-07 18:59:18', 'context': '货物已到达【青岛亚一分拨中心】', 'location': ''}, {'time': '2019-10-07 11:19:09', 'ftime': '2019-10-07 11:19:09', 'context': '货物已到达【青岛亚一分拨中心】', 'location': ''}, {'time': '2019-10-07 07:48:46', 'ftime': '2019-10-07 07:48:46', 'context': '受国庆假期影响，您的快递可能会延迟配送，请您耐心等待;', 'location': ''}, {'time': '2019-10-07 07:48:42', 'ftime': '2019-10-07 07:48:42', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-10-07 07:48:42', 'ftime': '2019-10-07 07:48:42', 'context': '配送员李军龙已经揽收完成', 'location': ''}, {'time': '2019-10-06 16:27:42', 'ftime': '2019-10-06 16:27:42', 'context': '配送员李军龙操作再取，再取原因为：客户更改揽收地址,下次预计揽收时间为10月07日23:00-00:00', 'location': ''}, {'time': '2019-10-03 18:42:04', 'ftime': '2019-10-03 18:42:04', 'context': '揽收任务已分配给李军龙,配送员电话15966933394或18519418971', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J14" s="3" t="n">
-        <v>0.065715</v>
+        <v>0.078259</v>
       </c>
       <c r="K14" s="3" t="n">
         <v>200</v>
@@ -1371,11 +1371,11 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 03:55:59', 'ftime': '2019-10-08 03:55:59', 'context': '[郑州市]郑州市【郑州转运中心】，正发往【上海转运中心】', 'location': '郑州市'}, {'time': '2019-10-08 03:52:47', 'ftime': '2019-10-08 03:52:47', 'context': '[郑州市]到郑州市【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-10-07 17:14:51', 'ftime': '2019-10-07 17:14:51', 'context': '[郑州市]郑州市【郑州中原区二部】，正发往【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-10-07 17:14:28', 'ftime': '2019-10-07 17:14:28', 'context': '[郑州市]郑州市【郑州中原区二部】，正发往【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-10-07 16:05:32', 'ftime': '2019-10-07 16:05:32', 'context': '[郑州市]派件员正在处理中，如有问题请联系物流客服', 'location': '郑州市'}, {'time': '2019-10-06 14:17:37', 'ftime': '2019-10-06 14:17:37', 'context': '[郑州市]快件已暂存至郑州升龙天汇三号院2号楼17店菜鸟驿站，如有疑问请联系17719876170', 'location': '郑州市'}, {'time': '2019-10-06 12:42:46', 'ftime': '2019-10-06 12:42:46', 'context': '[郑州市]郑州市【郑州中原区二部】，【谢中巍/13838090302】正在派件', 'location': '郑州市'}, {'time': '2019-10-06 12:41:46', 'ftime': '2019-10-06 12:41:46', 'context': '[郑州市]到郑州市【郑州中原区二部】', 'location': '郑州市'}, {'time': '2019-10-05 17:19:02', 'ftime': '2019-10-05 17:19:02', 'context': '[郑州市]郑州市【郑州转运中心】，正发往【郑州中原区二部】', 'location': '郑州市'}, {'time': '2019-10-05 11:27:57', 'ftime': '2019-10-05 11:27:57', 'context': '[郑州市]到郑州市【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-10-05 08:43:52', 'ftime': '2019-10-05 08:43:52', 'context': '[郑州市]郑州市【南区三部】，正发往【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-10-05 04:16:21', 'ftime': '2019-10-05 04:16:21', 'context': '[郑州市]郑州市【郑州转运中心】，正发往【南区三部】', 'location': '郑州市'}, {'time': '2019-10-04 10:35:51', 'ftime': '2019-10-04 10:35:51', 'context': '[郑州市]郑州市【南区三部】，正发往【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-10-04 03:31:11', 'ftime': '2019-10-04 03:31:11', 'context': '[郑州市]郑州市【郑州转运中心】，正发往【南区三部】', 'location': '郑州市'}, {'time': '2019-10-04 03:12:44', 'ftime': '2019-10-04 03:12:44', 'context': '[郑州市]到郑州市【郑州天明路分部集货点】', 'location': '郑州市'}, {'time': '2019-10-04 02:51:31', 'ftime': '2019-10-04 02:51:31', 'context': '[郑州市]到郑州市【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-10-03 11:15:31', 'ftime': '2019-10-03 11:15:31', 'context': '[郑州市]郑州市【南区三部】，正发往【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-10-03 01:52:18', 'ftime': '2019-10-03 01:52:18', 'context': '[郑州市]郑州市【郑州转运中心】，正发往【南区三部】', 'location': '郑州市'}, {'time': '2019-10-03 01:32:37', 'ftime': '2019-10-03 01:32:37', 'context': '[郑州市]到郑州市【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-10-02 10:50:05', 'ftime': '2019-10-02 10:50:05', 'context': '[郑州市]郑州市【南区三部】，正发往【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-10-02 06:30:56', 'ftime': '2019-10-02 06:30:56', 'context': '[郑州市]郑州市【郑州转运中心】，正发往【南区三部】', 'location': '郑州市'}, {'time': '2019-10-02 05:44:54', 'ftime': '2019-10-02 05:44:54', 'context': '[郑州市]到郑州市【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-09-30 23:16:52', 'ftime': '2019-09-30 23:16:52', 'context': '[上海市]上海市【上海转运中心】，正发往【郑州转运中心】', 'location': '上海市'}, {'time': '2019-09-29 23:57:41', 'ftime': '2019-09-29 23:57:41', 'context': '[上海市]上海市【上海转运中心】，正发往【郑州转运中心】', 'location': '上海市'}, {'time': '2019-09-29 23:54:11', 'ftime': '2019-09-29 23:54:11', 'context': '[上海市]到上海市【上海转运中心】', 'location': '上海市'}, {'time': '2019-09-29 16:13:16', 'ftime': '2019-09-29 16:13:16', 'context': '[上海市]上海市【上海闵开西部】，【云虹/18117300373】已揽收', 'location': '上海市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-25 16:54:55', 'context': '查无结果', 'ftime': '2019-09-25 16:54:55'}]}</t>
         </is>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0.07538300000000001</v>
+        <v>0.06952700000000001</v>
       </c>
       <c r="K16" s="3" t="n">
         <v>200</v>
@@ -1484,11 +1484,11 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 10:34:56', 'ftime': '2019-10-08 10:34:56', 'context': '[北京西城区平安里公司]快件已被 102小屋 代签收如有问题请联系李仑红【18513020231】。', 'location': None}, {'time': '2019-10-08 07:22:43', 'ftime': '2019-10-08 07:22:43', 'context': '[北京西城区平安里公司]进行派件扫描；派送业务员：李仑红；联系电话：18513020231', 'location': None}, {'time': '2019-10-07 22:18:52', 'ftime': '2019-10-07 22:18:52', 'context': '[北京分拨中心]从站点发出，本次转运目的地：北京西城区平安里公司', 'location': None}, {'time': '2019-10-07 22:03:55', 'ftime': '2019-10-07 22:03:55', 'context': '[北京分拨中心]在分拨中心进行卸车扫描', 'location': None}, {'time': '2019-10-06 23:35:57', 'ftime': '2019-10-06 23:35:57', 'context': '[黑龙江哈尔滨分拨中心]进行装车扫描，发往：北京分拨中心', 'location': None}, {'time': '2019-10-06 23:06:09', 'ftime': '2019-10-06 23:06:09', 'context': '[黑龙江哈尔滨分拨中心]进行中转集包扫描，发往：京西市内包', 'location': None}, {'time': '2019-10-06 22:47:17', 'ftime': '2019-10-06 22:47:17', 'context': '[黑龙江哈尔滨分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-10-06 12:33:38', 'ftime': '2019-10-06 12:33:38', 'context': '[黑龙江哈尔滨香坊区西大直公司]进行揽件扫描', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-28 11:51:57', 'ftime': '2019-07-28 11:51:57', 'context': '已签收,签收人是（已签收）先生/女士，风里来，雨里去，汗也撒泪也流，申通小哥一刻不停留。不求服务惊天下，但求好评动我心，给个好评呗！！如有疑问请联系派件员浮生(18105340157,15315802582)，感谢使用申通快递，期待再次为您服务', 'location': ''}, {'time': '2019-07-28 10:57:59', 'ftime': '2019-07-28 10:57:59', 'context': '山东德州黑马分部-浮生(18105340157,15315802582)-派件中', 'location': ''}, {'time': '2019-07-28 10:12:59', 'ftime': '2019-07-28 10:12:59', 'context': '已到达-山东德州黑马分部', 'location': ''}, {'time': '2019-07-27 12:55:40', 'ftime': '2019-07-27 12:55:40', 'context': '派送不成功-原因：送无人,电话联系明日送,电话：15315802582', 'location': ''}, {'time': '2019-07-27 11:33:02', 'ftime': '2019-07-27 11:33:02', 'context': '山东德州黑马分部-浮生(18105340157,15315802582)-派件中', 'location': ''}, {'time': '2019-07-27 10:48:02', 'ftime': '2019-07-27 10:48:02', 'context': '已到达-山东德州黑马分部', 'location': ''}, {'time': '2019-07-26 10:53:31', 'ftime': '2019-07-26 10:53:31', 'context': '派送不成功-原因：送无人,电话联系明日送,电话：15315802582', 'location': ''}, {'time': '2019-07-26 10:44:00', 'ftime': '2019-07-26 10:44:00', 'context': '山东德州黑马分部-浮生(18105340157,15315802582)-派件中', 'location': ''}, {'time': '2019-07-26 09:59:00', 'ftime': '2019-07-26 09:59:00', 'context': '已到达-山东德州黑马分部', 'location': ''}, {'time': '2019-07-26 05:50:55', 'ftime': '2019-07-26 05:50:55', 'context': '已到达-山东德州公司', 'location': ''}, {'time': '2019-07-26 05:50:32', 'ftime': '2019-07-26 05:50:32', 'context': '山东平原集散中心-已发往-山东德州公司', 'location': ''}, {'time': '2019-07-26 05:49:18', 'ftime': '2019-07-26 05:49:18', 'context': '已到达-山东平原集散中心', 'location': ''}, {'time': '2019-07-26 05:49:18', 'ftime': '2019-07-26 05:49:18', 'context': '快件已在【山东平原集散中心】进行卸车，扫描员【平原集散中心德】', 'location': ''}, {'time': '2019-07-26 02:42:43', 'ftime': '2019-07-26 02:42:43', 'context': '山东济南转运中心-已发往-山东平原集散中心', 'location': ''}, {'time': '2019-07-26 02:42:43', 'ftime': '2019-07-26 02:42:43', 'context': '山东济南转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-07-26 02:35:34', 'ftime': '2019-07-26 02:35:34', 'context': '已到达-山东济南转运中心', 'location': ''}, {'time': '2019-07-26 02:35:34', 'ftime': '2019-07-26 02:35:34', 'context': '快件已在【山东济南转运中心】进行卸车，扫描员【卸车到件2】', 'location': ''}, {'time': '2019-07-24 23:19:43', 'ftime': '2019-07-24 23:19:43', 'context': '黑龙江哈尔滨转运中心-已发往-山东济南转运中心', 'location': ''}, {'time': '2019-07-24 23:19:43', 'ftime': '2019-07-24 23:19:43', 'context': '黑龙江哈尔滨转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-07-24 23:16:39', 'ftime': '2019-07-24 23:16:39', 'context': '已到达-黑龙江哈尔滨转运中心', 'location': ''}, {'time': '2019-07-24 17:06:17', 'ftime': '2019-07-24 17:06:17', 'context': '黑龙江牡丹江集散中心-已发往-黑龙江哈尔滨转运中心', 'location': ''}, {'time': '2019-07-24 17:06:17', 'ftime': '2019-07-24 17:06:17', 'context': '黑龙江牡丹江集散中心-已进行装车扫描', 'location': ''}, {'time': '2019-07-24 16:48:03', 'ftime': '2019-07-24 16:48:03', 'context': '已到达-黑龙江牡丹江集散中心', 'location': ''}, {'time': '2019-07-24 13:04:25', 'ftime': '2019-07-24 13:04:25', 'context': '黑龙江牡丹江东地明街-已发往-黑龙江牡丹江集散中心', 'location': ''}, {'time': '2019-07-24 12:54:57', 'ftime': '2019-07-24 12:54:57', 'context': '黑龙江牡丹江东地明街-东地明街1(13359883358,13359883358)-已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J18" s="3" t="n">
-        <v>0.07473299999999999</v>
+        <v>0.073514</v>
       </c>
       <c r="K18" s="3" t="n">
         <v>200</v>
